--- a/data-raw/crosstabs/DataHaven2021_MiddlesexCounty_Crosstabs.xlsx
+++ b/data-raw/crosstabs/DataHaven2021_MiddlesexCounty_Crosstabs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarkAbraham\DataHaven Dropbox\2021 Wellbeing Survey\data\Crosstabs\Final Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E82574-0735-41B5-8AD1-3EB0AF671347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0491A5A-4F06-4D92-A36B-F3B03884E6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="1200" windowWidth="20770" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiddlesexCounty" sheetId="2" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="628">
   <si>
     <t>Gender</t>
   </si>
@@ -2093,6 +2093,12 @@
   <si>
     <t>CT</t>
   </si>
+  <si>
+    <t>*Note: The survey collects detailed race/ethnicity data, but estimates for all groups are not shown here due to small sample sizes. Refer to DataHaven's Town Equity Reports for more detail.</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity*</t>
+  </si>
 </sst>
 </file>
 
@@ -2101,7 +2107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2236,8 +2242,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2423,6 +2437,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2600,7 +2620,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2670,6 +2690,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2995,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1900"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A158" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196:T204"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3058,7 +3084,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23" t="s">
-        <v>2</v>
+        <v>627</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -3472,26 +3498,28 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="A10" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
@@ -65615,6 +65643,1295 @@
     </row>
   </sheetData>
   <mergeCells count="1321">
+    <mergeCell ref="A1887:C1887"/>
+    <mergeCell ref="A1869:C1869"/>
+    <mergeCell ref="A1884:T1884"/>
+    <mergeCell ref="D1885:E1885"/>
+    <mergeCell ref="F1885:I1885"/>
+    <mergeCell ref="J1885:L1885"/>
+    <mergeCell ref="M1885:O1885"/>
+    <mergeCell ref="P1885:R1885"/>
+    <mergeCell ref="S1885:T1885"/>
+    <mergeCell ref="A1860:C1860"/>
+    <mergeCell ref="A1866:T1866"/>
+    <mergeCell ref="D1867:E1867"/>
+    <mergeCell ref="F1867:I1867"/>
+    <mergeCell ref="J1867:L1867"/>
+    <mergeCell ref="M1867:O1867"/>
+    <mergeCell ref="P1867:R1867"/>
+    <mergeCell ref="S1867:T1867"/>
+    <mergeCell ref="A1851:C1851"/>
+    <mergeCell ref="A1857:T1857"/>
+    <mergeCell ref="D1858:E1858"/>
+    <mergeCell ref="F1858:I1858"/>
+    <mergeCell ref="J1858:L1858"/>
+    <mergeCell ref="M1858:O1858"/>
+    <mergeCell ref="P1858:R1858"/>
+    <mergeCell ref="S1858:T1858"/>
+    <mergeCell ref="A1842:C1842"/>
+    <mergeCell ref="A1848:T1848"/>
+    <mergeCell ref="D1849:E1849"/>
+    <mergeCell ref="F1849:I1849"/>
+    <mergeCell ref="J1849:L1849"/>
+    <mergeCell ref="M1849:O1849"/>
+    <mergeCell ref="P1849:R1849"/>
+    <mergeCell ref="S1849:T1849"/>
+    <mergeCell ref="A1831:C1831"/>
+    <mergeCell ref="A1839:T1839"/>
+    <mergeCell ref="D1840:E1840"/>
+    <mergeCell ref="F1840:I1840"/>
+    <mergeCell ref="J1840:L1840"/>
+    <mergeCell ref="M1840:O1840"/>
+    <mergeCell ref="P1840:R1840"/>
+    <mergeCell ref="S1840:T1840"/>
+    <mergeCell ref="A1820:C1820"/>
+    <mergeCell ref="A1828:T1828"/>
+    <mergeCell ref="D1829:E1829"/>
+    <mergeCell ref="F1829:I1829"/>
+    <mergeCell ref="J1829:L1829"/>
+    <mergeCell ref="M1829:O1829"/>
+    <mergeCell ref="P1829:R1829"/>
+    <mergeCell ref="S1829:T1829"/>
+    <mergeCell ref="A1808:C1808"/>
+    <mergeCell ref="A1817:T1817"/>
+    <mergeCell ref="D1818:E1818"/>
+    <mergeCell ref="F1818:I1818"/>
+    <mergeCell ref="J1818:L1818"/>
+    <mergeCell ref="M1818:O1818"/>
+    <mergeCell ref="P1818:R1818"/>
+    <mergeCell ref="S1818:T1818"/>
+    <mergeCell ref="A1796:C1796"/>
+    <mergeCell ref="A1805:T1805"/>
+    <mergeCell ref="D1806:E1806"/>
+    <mergeCell ref="F1806:I1806"/>
+    <mergeCell ref="J1806:L1806"/>
+    <mergeCell ref="M1806:O1806"/>
+    <mergeCell ref="P1806:R1806"/>
+    <mergeCell ref="S1806:T1806"/>
+    <mergeCell ref="A1784:C1784"/>
+    <mergeCell ref="A1793:T1793"/>
+    <mergeCell ref="D1794:E1794"/>
+    <mergeCell ref="F1794:I1794"/>
+    <mergeCell ref="J1794:L1794"/>
+    <mergeCell ref="M1794:O1794"/>
+    <mergeCell ref="P1794:R1794"/>
+    <mergeCell ref="S1794:T1794"/>
+    <mergeCell ref="A1772:C1772"/>
+    <mergeCell ref="A1781:T1781"/>
+    <mergeCell ref="D1782:E1782"/>
+    <mergeCell ref="F1782:I1782"/>
+    <mergeCell ref="J1782:L1782"/>
+    <mergeCell ref="M1782:O1782"/>
+    <mergeCell ref="P1782:R1782"/>
+    <mergeCell ref="S1782:T1782"/>
+    <mergeCell ref="A1760:C1760"/>
+    <mergeCell ref="A1769:T1769"/>
+    <mergeCell ref="D1770:E1770"/>
+    <mergeCell ref="F1770:I1770"/>
+    <mergeCell ref="J1770:L1770"/>
+    <mergeCell ref="M1770:O1770"/>
+    <mergeCell ref="P1770:R1770"/>
+    <mergeCell ref="S1770:T1770"/>
+    <mergeCell ref="A1748:C1748"/>
+    <mergeCell ref="A1757:T1757"/>
+    <mergeCell ref="D1758:E1758"/>
+    <mergeCell ref="F1758:I1758"/>
+    <mergeCell ref="J1758:L1758"/>
+    <mergeCell ref="M1758:O1758"/>
+    <mergeCell ref="P1758:R1758"/>
+    <mergeCell ref="S1758:T1758"/>
+    <mergeCell ref="A1736:C1736"/>
+    <mergeCell ref="A1745:T1745"/>
+    <mergeCell ref="D1746:E1746"/>
+    <mergeCell ref="F1746:I1746"/>
+    <mergeCell ref="J1746:L1746"/>
+    <mergeCell ref="M1746:O1746"/>
+    <mergeCell ref="P1746:R1746"/>
+    <mergeCell ref="S1746:T1746"/>
+    <mergeCell ref="A1724:C1724"/>
+    <mergeCell ref="A1733:T1733"/>
+    <mergeCell ref="D1734:E1734"/>
+    <mergeCell ref="F1734:I1734"/>
+    <mergeCell ref="J1734:L1734"/>
+    <mergeCell ref="M1734:O1734"/>
+    <mergeCell ref="P1734:R1734"/>
+    <mergeCell ref="S1734:T1734"/>
+    <mergeCell ref="A1712:C1712"/>
+    <mergeCell ref="A1721:T1721"/>
+    <mergeCell ref="D1722:E1722"/>
+    <mergeCell ref="F1722:I1722"/>
+    <mergeCell ref="J1722:L1722"/>
+    <mergeCell ref="M1722:O1722"/>
+    <mergeCell ref="P1722:R1722"/>
+    <mergeCell ref="S1722:T1722"/>
+    <mergeCell ref="A1700:C1700"/>
+    <mergeCell ref="A1709:T1709"/>
+    <mergeCell ref="D1710:E1710"/>
+    <mergeCell ref="F1710:I1710"/>
+    <mergeCell ref="J1710:L1710"/>
+    <mergeCell ref="M1710:O1710"/>
+    <mergeCell ref="P1710:R1710"/>
+    <mergeCell ref="S1710:T1710"/>
+    <mergeCell ref="A1688:C1688"/>
+    <mergeCell ref="A1697:T1697"/>
+    <mergeCell ref="D1698:E1698"/>
+    <mergeCell ref="F1698:I1698"/>
+    <mergeCell ref="J1698:L1698"/>
+    <mergeCell ref="M1698:O1698"/>
+    <mergeCell ref="P1698:R1698"/>
+    <mergeCell ref="S1698:T1698"/>
+    <mergeCell ref="A1679:C1679"/>
+    <mergeCell ref="A1685:T1685"/>
+    <mergeCell ref="D1686:E1686"/>
+    <mergeCell ref="F1686:I1686"/>
+    <mergeCell ref="J1686:L1686"/>
+    <mergeCell ref="M1686:O1686"/>
+    <mergeCell ref="P1686:R1686"/>
+    <mergeCell ref="S1686:T1686"/>
+    <mergeCell ref="A1667:C1667"/>
+    <mergeCell ref="A1676:T1676"/>
+    <mergeCell ref="D1677:E1677"/>
+    <mergeCell ref="F1677:I1677"/>
+    <mergeCell ref="J1677:L1677"/>
+    <mergeCell ref="M1677:O1677"/>
+    <mergeCell ref="P1677:R1677"/>
+    <mergeCell ref="S1677:T1677"/>
+    <mergeCell ref="A1657:C1657"/>
+    <mergeCell ref="A1664:T1664"/>
+    <mergeCell ref="D1665:E1665"/>
+    <mergeCell ref="F1665:I1665"/>
+    <mergeCell ref="J1665:L1665"/>
+    <mergeCell ref="M1665:O1665"/>
+    <mergeCell ref="P1665:R1665"/>
+    <mergeCell ref="S1665:T1665"/>
+    <mergeCell ref="A1648:C1648"/>
+    <mergeCell ref="A1654:T1654"/>
+    <mergeCell ref="D1655:E1655"/>
+    <mergeCell ref="F1655:I1655"/>
+    <mergeCell ref="J1655:L1655"/>
+    <mergeCell ref="M1655:O1655"/>
+    <mergeCell ref="P1655:R1655"/>
+    <mergeCell ref="S1655:T1655"/>
+    <mergeCell ref="A1636:C1636"/>
+    <mergeCell ref="A1645:T1645"/>
+    <mergeCell ref="D1646:E1646"/>
+    <mergeCell ref="F1646:I1646"/>
+    <mergeCell ref="J1646:L1646"/>
+    <mergeCell ref="M1646:O1646"/>
+    <mergeCell ref="P1646:R1646"/>
+    <mergeCell ref="S1646:T1646"/>
+    <mergeCell ref="A1626:C1626"/>
+    <mergeCell ref="A1633:T1633"/>
+    <mergeCell ref="D1634:E1634"/>
+    <mergeCell ref="F1634:I1634"/>
+    <mergeCell ref="J1634:L1634"/>
+    <mergeCell ref="M1634:O1634"/>
+    <mergeCell ref="P1634:R1634"/>
+    <mergeCell ref="S1634:T1634"/>
+    <mergeCell ref="A1616:C1616"/>
+    <mergeCell ref="A1623:T1623"/>
+    <mergeCell ref="D1624:E1624"/>
+    <mergeCell ref="F1624:I1624"/>
+    <mergeCell ref="J1624:L1624"/>
+    <mergeCell ref="M1624:O1624"/>
+    <mergeCell ref="P1624:R1624"/>
+    <mergeCell ref="S1624:T1624"/>
+    <mergeCell ref="A1606:C1606"/>
+    <mergeCell ref="A1613:T1613"/>
+    <mergeCell ref="D1614:E1614"/>
+    <mergeCell ref="F1614:I1614"/>
+    <mergeCell ref="J1614:L1614"/>
+    <mergeCell ref="M1614:O1614"/>
+    <mergeCell ref="P1614:R1614"/>
+    <mergeCell ref="S1614:T1614"/>
+    <mergeCell ref="A1593:C1593"/>
+    <mergeCell ref="A1603:T1603"/>
+    <mergeCell ref="D1604:E1604"/>
+    <mergeCell ref="F1604:I1604"/>
+    <mergeCell ref="J1604:L1604"/>
+    <mergeCell ref="M1604:O1604"/>
+    <mergeCell ref="P1604:R1604"/>
+    <mergeCell ref="S1604:T1604"/>
+    <mergeCell ref="A1575:C1575"/>
+    <mergeCell ref="A1590:T1590"/>
+    <mergeCell ref="D1591:E1591"/>
+    <mergeCell ref="F1591:I1591"/>
+    <mergeCell ref="J1591:L1591"/>
+    <mergeCell ref="M1591:O1591"/>
+    <mergeCell ref="P1591:R1591"/>
+    <mergeCell ref="S1591:T1591"/>
+    <mergeCell ref="A1563:C1563"/>
+    <mergeCell ref="A1572:T1572"/>
+    <mergeCell ref="D1573:E1573"/>
+    <mergeCell ref="F1573:I1573"/>
+    <mergeCell ref="J1573:L1573"/>
+    <mergeCell ref="M1573:O1573"/>
+    <mergeCell ref="P1573:R1573"/>
+    <mergeCell ref="S1573:T1573"/>
+    <mergeCell ref="A1554:C1554"/>
+    <mergeCell ref="A1560:T1560"/>
+    <mergeCell ref="D1561:E1561"/>
+    <mergeCell ref="F1561:I1561"/>
+    <mergeCell ref="J1561:L1561"/>
+    <mergeCell ref="M1561:O1561"/>
+    <mergeCell ref="P1561:R1561"/>
+    <mergeCell ref="S1561:T1561"/>
+    <mergeCell ref="A1542:C1542"/>
+    <mergeCell ref="A1551:T1551"/>
+    <mergeCell ref="D1552:E1552"/>
+    <mergeCell ref="F1552:I1552"/>
+    <mergeCell ref="J1552:L1552"/>
+    <mergeCell ref="M1552:O1552"/>
+    <mergeCell ref="P1552:R1552"/>
+    <mergeCell ref="S1552:T1552"/>
+    <mergeCell ref="A1533:C1533"/>
+    <mergeCell ref="A1539:T1539"/>
+    <mergeCell ref="D1540:E1540"/>
+    <mergeCell ref="F1540:I1540"/>
+    <mergeCell ref="J1540:L1540"/>
+    <mergeCell ref="M1540:O1540"/>
+    <mergeCell ref="P1540:R1540"/>
+    <mergeCell ref="S1540:T1540"/>
+    <mergeCell ref="A1524:C1524"/>
+    <mergeCell ref="A1530:T1530"/>
+    <mergeCell ref="D1531:E1531"/>
+    <mergeCell ref="F1531:I1531"/>
+    <mergeCell ref="J1531:L1531"/>
+    <mergeCell ref="M1531:O1531"/>
+    <mergeCell ref="P1531:R1531"/>
+    <mergeCell ref="S1531:T1531"/>
+    <mergeCell ref="A1515:C1515"/>
+    <mergeCell ref="A1521:T1521"/>
+    <mergeCell ref="D1522:E1522"/>
+    <mergeCell ref="F1522:I1522"/>
+    <mergeCell ref="J1522:L1522"/>
+    <mergeCell ref="M1522:O1522"/>
+    <mergeCell ref="P1522:R1522"/>
+    <mergeCell ref="S1522:T1522"/>
+    <mergeCell ref="A1505:C1505"/>
+    <mergeCell ref="A1512:T1512"/>
+    <mergeCell ref="D1513:E1513"/>
+    <mergeCell ref="F1513:I1513"/>
+    <mergeCell ref="J1513:L1513"/>
+    <mergeCell ref="M1513:O1513"/>
+    <mergeCell ref="P1513:R1513"/>
+    <mergeCell ref="S1513:T1513"/>
+    <mergeCell ref="A1495:C1495"/>
+    <mergeCell ref="A1502:T1502"/>
+    <mergeCell ref="D1503:E1503"/>
+    <mergeCell ref="F1503:I1503"/>
+    <mergeCell ref="J1503:L1503"/>
+    <mergeCell ref="M1503:O1503"/>
+    <mergeCell ref="P1503:R1503"/>
+    <mergeCell ref="S1503:T1503"/>
+    <mergeCell ref="A1485:C1485"/>
+    <mergeCell ref="A1492:T1492"/>
+    <mergeCell ref="D1493:E1493"/>
+    <mergeCell ref="F1493:I1493"/>
+    <mergeCell ref="J1493:L1493"/>
+    <mergeCell ref="M1493:O1493"/>
+    <mergeCell ref="P1493:R1493"/>
+    <mergeCell ref="S1493:T1493"/>
+    <mergeCell ref="A1475:C1475"/>
+    <mergeCell ref="A1482:T1482"/>
+    <mergeCell ref="D1483:E1483"/>
+    <mergeCell ref="F1483:I1483"/>
+    <mergeCell ref="J1483:L1483"/>
+    <mergeCell ref="M1483:O1483"/>
+    <mergeCell ref="P1483:R1483"/>
+    <mergeCell ref="S1483:T1483"/>
+    <mergeCell ref="A1465:C1465"/>
+    <mergeCell ref="A1472:T1472"/>
+    <mergeCell ref="D1473:E1473"/>
+    <mergeCell ref="F1473:I1473"/>
+    <mergeCell ref="J1473:L1473"/>
+    <mergeCell ref="M1473:O1473"/>
+    <mergeCell ref="P1473:R1473"/>
+    <mergeCell ref="S1473:T1473"/>
+    <mergeCell ref="A1455:C1455"/>
+    <mergeCell ref="A1462:T1462"/>
+    <mergeCell ref="D1463:E1463"/>
+    <mergeCell ref="F1463:I1463"/>
+    <mergeCell ref="J1463:L1463"/>
+    <mergeCell ref="M1463:O1463"/>
+    <mergeCell ref="P1463:R1463"/>
+    <mergeCell ref="S1463:T1463"/>
+    <mergeCell ref="A1452:T1452"/>
+    <mergeCell ref="D1453:E1453"/>
+    <mergeCell ref="F1453:I1453"/>
+    <mergeCell ref="J1453:L1453"/>
+    <mergeCell ref="M1453:O1453"/>
+    <mergeCell ref="P1453:R1453"/>
+    <mergeCell ref="S1453:T1453"/>
+    <mergeCell ref="A1442:C1442"/>
+    <mergeCell ref="A1451:T1451"/>
+    <mergeCell ref="A1430:C1430"/>
+    <mergeCell ref="A1439:T1439"/>
+    <mergeCell ref="D1440:E1440"/>
+    <mergeCell ref="F1440:I1440"/>
+    <mergeCell ref="J1440:L1440"/>
+    <mergeCell ref="M1440:O1440"/>
+    <mergeCell ref="P1440:R1440"/>
+    <mergeCell ref="S1440:T1440"/>
+    <mergeCell ref="A1421:C1421"/>
+    <mergeCell ref="A1427:T1427"/>
+    <mergeCell ref="D1428:E1428"/>
+    <mergeCell ref="F1428:I1428"/>
+    <mergeCell ref="J1428:L1428"/>
+    <mergeCell ref="M1428:O1428"/>
+    <mergeCell ref="P1428:R1428"/>
+    <mergeCell ref="S1428:T1428"/>
+    <mergeCell ref="A1412:C1412"/>
+    <mergeCell ref="A1418:T1418"/>
+    <mergeCell ref="D1419:E1419"/>
+    <mergeCell ref="F1419:I1419"/>
+    <mergeCell ref="J1419:L1419"/>
+    <mergeCell ref="M1419:O1419"/>
+    <mergeCell ref="P1419:R1419"/>
+    <mergeCell ref="S1419:T1419"/>
+    <mergeCell ref="A1403:C1403"/>
+    <mergeCell ref="A1409:T1409"/>
+    <mergeCell ref="D1410:E1410"/>
+    <mergeCell ref="F1410:I1410"/>
+    <mergeCell ref="J1410:L1410"/>
+    <mergeCell ref="M1410:O1410"/>
+    <mergeCell ref="P1410:R1410"/>
+    <mergeCell ref="S1410:T1410"/>
+    <mergeCell ref="A1394:C1394"/>
+    <mergeCell ref="A1400:T1400"/>
+    <mergeCell ref="D1401:E1401"/>
+    <mergeCell ref="F1401:I1401"/>
+    <mergeCell ref="J1401:L1401"/>
+    <mergeCell ref="M1401:O1401"/>
+    <mergeCell ref="P1401:R1401"/>
+    <mergeCell ref="S1401:T1401"/>
+    <mergeCell ref="A1385:C1385"/>
+    <mergeCell ref="A1391:T1391"/>
+    <mergeCell ref="D1392:E1392"/>
+    <mergeCell ref="F1392:I1392"/>
+    <mergeCell ref="J1392:L1392"/>
+    <mergeCell ref="M1392:O1392"/>
+    <mergeCell ref="P1392:R1392"/>
+    <mergeCell ref="S1392:T1392"/>
+    <mergeCell ref="A1376:C1376"/>
+    <mergeCell ref="A1382:T1382"/>
+    <mergeCell ref="D1383:E1383"/>
+    <mergeCell ref="F1383:I1383"/>
+    <mergeCell ref="J1383:L1383"/>
+    <mergeCell ref="M1383:O1383"/>
+    <mergeCell ref="P1383:R1383"/>
+    <mergeCell ref="S1383:T1383"/>
+    <mergeCell ref="A1367:C1367"/>
+    <mergeCell ref="A1373:T1373"/>
+    <mergeCell ref="D1374:E1374"/>
+    <mergeCell ref="F1374:I1374"/>
+    <mergeCell ref="J1374:L1374"/>
+    <mergeCell ref="M1374:O1374"/>
+    <mergeCell ref="P1374:R1374"/>
+    <mergeCell ref="S1374:T1374"/>
+    <mergeCell ref="A1356:C1356"/>
+    <mergeCell ref="A1364:T1364"/>
+    <mergeCell ref="D1365:E1365"/>
+    <mergeCell ref="F1365:I1365"/>
+    <mergeCell ref="J1365:L1365"/>
+    <mergeCell ref="M1365:O1365"/>
+    <mergeCell ref="P1365:R1365"/>
+    <mergeCell ref="S1365:T1365"/>
+    <mergeCell ref="A1347:C1347"/>
+    <mergeCell ref="A1353:T1353"/>
+    <mergeCell ref="D1354:E1354"/>
+    <mergeCell ref="F1354:I1354"/>
+    <mergeCell ref="J1354:L1354"/>
+    <mergeCell ref="M1354:O1354"/>
+    <mergeCell ref="P1354:R1354"/>
+    <mergeCell ref="S1354:T1354"/>
+    <mergeCell ref="A1344:T1344"/>
+    <mergeCell ref="D1345:E1345"/>
+    <mergeCell ref="F1345:I1345"/>
+    <mergeCell ref="J1345:L1345"/>
+    <mergeCell ref="M1345:O1345"/>
+    <mergeCell ref="P1345:R1345"/>
+    <mergeCell ref="S1345:T1345"/>
+    <mergeCell ref="A1338:C1338"/>
+    <mergeCell ref="A1321:C1321"/>
+    <mergeCell ref="A1335:T1335"/>
+    <mergeCell ref="D1336:E1336"/>
+    <mergeCell ref="F1336:I1336"/>
+    <mergeCell ref="J1336:L1336"/>
+    <mergeCell ref="M1336:O1336"/>
+    <mergeCell ref="P1336:R1336"/>
+    <mergeCell ref="S1336:T1336"/>
+    <mergeCell ref="A1307:C1307"/>
+    <mergeCell ref="A1318:T1318"/>
+    <mergeCell ref="D1319:E1319"/>
+    <mergeCell ref="F1319:I1319"/>
+    <mergeCell ref="J1319:L1319"/>
+    <mergeCell ref="M1319:O1319"/>
+    <mergeCell ref="P1319:R1319"/>
+    <mergeCell ref="S1319:T1319"/>
+    <mergeCell ref="A1287:C1287"/>
+    <mergeCell ref="A1304:T1304"/>
+    <mergeCell ref="D1305:E1305"/>
+    <mergeCell ref="F1305:I1305"/>
+    <mergeCell ref="J1305:L1305"/>
+    <mergeCell ref="M1305:O1305"/>
+    <mergeCell ref="P1305:R1305"/>
+    <mergeCell ref="S1305:T1305"/>
+    <mergeCell ref="A1277:C1277"/>
+    <mergeCell ref="A1284:T1284"/>
+    <mergeCell ref="D1285:E1285"/>
+    <mergeCell ref="F1285:I1285"/>
+    <mergeCell ref="J1285:L1285"/>
+    <mergeCell ref="M1285:O1285"/>
+    <mergeCell ref="P1285:R1285"/>
+    <mergeCell ref="S1285:T1285"/>
+    <mergeCell ref="A1261:C1261"/>
+    <mergeCell ref="A1274:T1274"/>
+    <mergeCell ref="D1275:E1275"/>
+    <mergeCell ref="F1275:I1275"/>
+    <mergeCell ref="J1275:L1275"/>
+    <mergeCell ref="M1275:O1275"/>
+    <mergeCell ref="P1275:R1275"/>
+    <mergeCell ref="S1275:T1275"/>
+    <mergeCell ref="A1247:C1247"/>
+    <mergeCell ref="A1258:T1258"/>
+    <mergeCell ref="D1259:E1259"/>
+    <mergeCell ref="F1259:I1259"/>
+    <mergeCell ref="J1259:L1259"/>
+    <mergeCell ref="M1259:O1259"/>
+    <mergeCell ref="P1259:R1259"/>
+    <mergeCell ref="S1259:T1259"/>
+    <mergeCell ref="A1228:C1228"/>
+    <mergeCell ref="A1244:T1244"/>
+    <mergeCell ref="D1245:E1245"/>
+    <mergeCell ref="F1245:I1245"/>
+    <mergeCell ref="J1245:L1245"/>
+    <mergeCell ref="M1245:O1245"/>
+    <mergeCell ref="P1245:R1245"/>
+    <mergeCell ref="S1245:T1245"/>
+    <mergeCell ref="A1218:C1218"/>
+    <mergeCell ref="A1225:T1225"/>
+    <mergeCell ref="D1226:E1226"/>
+    <mergeCell ref="F1226:I1226"/>
+    <mergeCell ref="J1226:L1226"/>
+    <mergeCell ref="M1226:O1226"/>
+    <mergeCell ref="P1226:R1226"/>
+    <mergeCell ref="S1226:T1226"/>
+    <mergeCell ref="A1204:C1204"/>
+    <mergeCell ref="A1215:T1215"/>
+    <mergeCell ref="D1216:E1216"/>
+    <mergeCell ref="F1216:I1216"/>
+    <mergeCell ref="J1216:L1216"/>
+    <mergeCell ref="M1216:O1216"/>
+    <mergeCell ref="P1216:R1216"/>
+    <mergeCell ref="S1216:T1216"/>
+    <mergeCell ref="A1185:C1185"/>
+    <mergeCell ref="A1201:T1201"/>
+    <mergeCell ref="D1202:E1202"/>
+    <mergeCell ref="F1202:I1202"/>
+    <mergeCell ref="J1202:L1202"/>
+    <mergeCell ref="M1202:O1202"/>
+    <mergeCell ref="P1202:R1202"/>
+    <mergeCell ref="S1202:T1202"/>
+    <mergeCell ref="A1175:C1175"/>
+    <mergeCell ref="A1182:T1182"/>
+    <mergeCell ref="D1183:E1183"/>
+    <mergeCell ref="F1183:I1183"/>
+    <mergeCell ref="J1183:L1183"/>
+    <mergeCell ref="M1183:O1183"/>
+    <mergeCell ref="P1183:R1183"/>
+    <mergeCell ref="S1183:T1183"/>
+    <mergeCell ref="A1172:T1172"/>
+    <mergeCell ref="D1173:E1173"/>
+    <mergeCell ref="F1173:I1173"/>
+    <mergeCell ref="J1173:L1173"/>
+    <mergeCell ref="M1173:O1173"/>
+    <mergeCell ref="P1173:R1173"/>
+    <mergeCell ref="S1173:T1173"/>
+    <mergeCell ref="A1164:C1164"/>
+    <mergeCell ref="A1171:T1171"/>
+    <mergeCell ref="A1154:C1154"/>
+    <mergeCell ref="A1161:T1161"/>
+    <mergeCell ref="D1162:E1162"/>
+    <mergeCell ref="F1162:I1162"/>
+    <mergeCell ref="J1162:L1162"/>
+    <mergeCell ref="M1162:O1162"/>
+    <mergeCell ref="P1162:R1162"/>
+    <mergeCell ref="S1162:T1162"/>
+    <mergeCell ref="A1144:C1144"/>
+    <mergeCell ref="A1151:T1151"/>
+    <mergeCell ref="D1152:E1152"/>
+    <mergeCell ref="F1152:I1152"/>
+    <mergeCell ref="J1152:L1152"/>
+    <mergeCell ref="M1152:O1152"/>
+    <mergeCell ref="P1152:R1152"/>
+    <mergeCell ref="S1152:T1152"/>
+    <mergeCell ref="A1131:C1131"/>
+    <mergeCell ref="A1141:T1141"/>
+    <mergeCell ref="D1142:E1142"/>
+    <mergeCell ref="F1142:I1142"/>
+    <mergeCell ref="J1142:L1142"/>
+    <mergeCell ref="M1142:O1142"/>
+    <mergeCell ref="P1142:R1142"/>
+    <mergeCell ref="S1142:T1142"/>
+    <mergeCell ref="A1121:C1121"/>
+    <mergeCell ref="A1128:T1128"/>
+    <mergeCell ref="D1129:E1129"/>
+    <mergeCell ref="F1129:I1129"/>
+    <mergeCell ref="J1129:L1129"/>
+    <mergeCell ref="M1129:O1129"/>
+    <mergeCell ref="P1129:R1129"/>
+    <mergeCell ref="S1129:T1129"/>
+    <mergeCell ref="A1111:C1111"/>
+    <mergeCell ref="A1118:T1118"/>
+    <mergeCell ref="D1119:E1119"/>
+    <mergeCell ref="F1119:I1119"/>
+    <mergeCell ref="J1119:L1119"/>
+    <mergeCell ref="M1119:O1119"/>
+    <mergeCell ref="P1119:R1119"/>
+    <mergeCell ref="S1119:T1119"/>
+    <mergeCell ref="A1101:C1101"/>
+    <mergeCell ref="A1108:T1108"/>
+    <mergeCell ref="D1109:E1109"/>
+    <mergeCell ref="F1109:I1109"/>
+    <mergeCell ref="J1109:L1109"/>
+    <mergeCell ref="M1109:O1109"/>
+    <mergeCell ref="P1109:R1109"/>
+    <mergeCell ref="S1109:T1109"/>
+    <mergeCell ref="A1090:C1090"/>
+    <mergeCell ref="A1098:T1098"/>
+    <mergeCell ref="D1099:E1099"/>
+    <mergeCell ref="F1099:I1099"/>
+    <mergeCell ref="J1099:L1099"/>
+    <mergeCell ref="M1099:O1099"/>
+    <mergeCell ref="P1099:R1099"/>
+    <mergeCell ref="S1099:T1099"/>
+    <mergeCell ref="A1080:C1080"/>
+    <mergeCell ref="A1087:T1087"/>
+    <mergeCell ref="D1088:E1088"/>
+    <mergeCell ref="F1088:I1088"/>
+    <mergeCell ref="J1088:L1088"/>
+    <mergeCell ref="M1088:O1088"/>
+    <mergeCell ref="P1088:R1088"/>
+    <mergeCell ref="S1088:T1088"/>
+    <mergeCell ref="A1070:C1070"/>
+    <mergeCell ref="A1077:T1077"/>
+    <mergeCell ref="D1078:E1078"/>
+    <mergeCell ref="F1078:I1078"/>
+    <mergeCell ref="J1078:L1078"/>
+    <mergeCell ref="M1078:O1078"/>
+    <mergeCell ref="P1078:R1078"/>
+    <mergeCell ref="S1078:T1078"/>
+    <mergeCell ref="A1059:C1059"/>
+    <mergeCell ref="A1067:T1067"/>
+    <mergeCell ref="D1068:E1068"/>
+    <mergeCell ref="F1068:I1068"/>
+    <mergeCell ref="J1068:L1068"/>
+    <mergeCell ref="M1068:O1068"/>
+    <mergeCell ref="P1068:R1068"/>
+    <mergeCell ref="S1068:T1068"/>
+    <mergeCell ref="A1049:C1049"/>
+    <mergeCell ref="A1056:T1056"/>
+    <mergeCell ref="D1057:E1057"/>
+    <mergeCell ref="F1057:I1057"/>
+    <mergeCell ref="J1057:L1057"/>
+    <mergeCell ref="M1057:O1057"/>
+    <mergeCell ref="P1057:R1057"/>
+    <mergeCell ref="S1057:T1057"/>
+    <mergeCell ref="A1046:T1046"/>
+    <mergeCell ref="D1047:E1047"/>
+    <mergeCell ref="F1047:I1047"/>
+    <mergeCell ref="J1047:L1047"/>
+    <mergeCell ref="M1047:O1047"/>
+    <mergeCell ref="P1047:R1047"/>
+    <mergeCell ref="S1047:T1047"/>
+    <mergeCell ref="A1037:C1037"/>
+    <mergeCell ref="A1045:T1045"/>
+    <mergeCell ref="A1025:C1025"/>
+    <mergeCell ref="A1034:T1034"/>
+    <mergeCell ref="D1035:E1035"/>
+    <mergeCell ref="F1035:I1035"/>
+    <mergeCell ref="J1035:L1035"/>
+    <mergeCell ref="M1035:O1035"/>
+    <mergeCell ref="P1035:R1035"/>
+    <mergeCell ref="S1035:T1035"/>
+    <mergeCell ref="A1014:C1014"/>
+    <mergeCell ref="A1022:T1022"/>
+    <mergeCell ref="D1023:E1023"/>
+    <mergeCell ref="F1023:I1023"/>
+    <mergeCell ref="J1023:L1023"/>
+    <mergeCell ref="M1023:O1023"/>
+    <mergeCell ref="P1023:R1023"/>
+    <mergeCell ref="S1023:T1023"/>
+    <mergeCell ref="A1004:C1004"/>
+    <mergeCell ref="A1011:T1011"/>
+    <mergeCell ref="D1012:E1012"/>
+    <mergeCell ref="F1012:I1012"/>
+    <mergeCell ref="J1012:L1012"/>
+    <mergeCell ref="M1012:O1012"/>
+    <mergeCell ref="P1012:R1012"/>
+    <mergeCell ref="S1012:T1012"/>
+    <mergeCell ref="A990:C990"/>
+    <mergeCell ref="A1001:T1001"/>
+    <mergeCell ref="D1002:E1002"/>
+    <mergeCell ref="F1002:I1002"/>
+    <mergeCell ref="J1002:L1002"/>
+    <mergeCell ref="M1002:O1002"/>
+    <mergeCell ref="P1002:R1002"/>
+    <mergeCell ref="S1002:T1002"/>
+    <mergeCell ref="A979:C979"/>
+    <mergeCell ref="A987:T987"/>
+    <mergeCell ref="D988:E988"/>
+    <mergeCell ref="F988:I988"/>
+    <mergeCell ref="J988:L988"/>
+    <mergeCell ref="M988:O988"/>
+    <mergeCell ref="P988:R988"/>
+    <mergeCell ref="S988:T988"/>
+    <mergeCell ref="A976:T976"/>
+    <mergeCell ref="D977:E977"/>
+    <mergeCell ref="F977:I977"/>
+    <mergeCell ref="J977:L977"/>
+    <mergeCell ref="M977:O977"/>
+    <mergeCell ref="P977:R977"/>
+    <mergeCell ref="S977:T977"/>
+    <mergeCell ref="A968:C968"/>
+    <mergeCell ref="A957:C957"/>
+    <mergeCell ref="A965:T965"/>
+    <mergeCell ref="D966:E966"/>
+    <mergeCell ref="F966:I966"/>
+    <mergeCell ref="J966:L966"/>
+    <mergeCell ref="M966:O966"/>
+    <mergeCell ref="P966:R966"/>
+    <mergeCell ref="S966:T966"/>
+    <mergeCell ref="A944:C944"/>
+    <mergeCell ref="A954:T954"/>
+    <mergeCell ref="D955:E955"/>
+    <mergeCell ref="F955:I955"/>
+    <mergeCell ref="J955:L955"/>
+    <mergeCell ref="M955:O955"/>
+    <mergeCell ref="P955:R955"/>
+    <mergeCell ref="S955:T955"/>
+    <mergeCell ref="A932:C932"/>
+    <mergeCell ref="A941:T941"/>
+    <mergeCell ref="D942:E942"/>
+    <mergeCell ref="F942:I942"/>
+    <mergeCell ref="J942:L942"/>
+    <mergeCell ref="M942:O942"/>
+    <mergeCell ref="P942:R942"/>
+    <mergeCell ref="S942:T942"/>
+    <mergeCell ref="A922:C922"/>
+    <mergeCell ref="A929:T929"/>
+    <mergeCell ref="D930:E930"/>
+    <mergeCell ref="F930:I930"/>
+    <mergeCell ref="J930:L930"/>
+    <mergeCell ref="M930:O930"/>
+    <mergeCell ref="P930:R930"/>
+    <mergeCell ref="S930:T930"/>
+    <mergeCell ref="A912:C912"/>
+    <mergeCell ref="A919:T919"/>
+    <mergeCell ref="D920:E920"/>
+    <mergeCell ref="F920:I920"/>
+    <mergeCell ref="J920:L920"/>
+    <mergeCell ref="M920:O920"/>
+    <mergeCell ref="P920:R920"/>
+    <mergeCell ref="S920:T920"/>
+    <mergeCell ref="A901:C901"/>
+    <mergeCell ref="A909:T909"/>
+    <mergeCell ref="D910:E910"/>
+    <mergeCell ref="F910:I910"/>
+    <mergeCell ref="J910:L910"/>
+    <mergeCell ref="M910:O910"/>
+    <mergeCell ref="P910:R910"/>
+    <mergeCell ref="S910:T910"/>
+    <mergeCell ref="A889:C889"/>
+    <mergeCell ref="A898:T898"/>
+    <mergeCell ref="D899:E899"/>
+    <mergeCell ref="F899:I899"/>
+    <mergeCell ref="J899:L899"/>
+    <mergeCell ref="M899:O899"/>
+    <mergeCell ref="P899:R899"/>
+    <mergeCell ref="S899:T899"/>
+    <mergeCell ref="A877:C877"/>
+    <mergeCell ref="A886:T886"/>
+    <mergeCell ref="D887:E887"/>
+    <mergeCell ref="F887:I887"/>
+    <mergeCell ref="J887:L887"/>
+    <mergeCell ref="M887:O887"/>
+    <mergeCell ref="P887:R887"/>
+    <mergeCell ref="S887:T887"/>
+    <mergeCell ref="A865:C865"/>
+    <mergeCell ref="A874:T874"/>
+    <mergeCell ref="D875:E875"/>
+    <mergeCell ref="F875:I875"/>
+    <mergeCell ref="J875:L875"/>
+    <mergeCell ref="M875:O875"/>
+    <mergeCell ref="P875:R875"/>
+    <mergeCell ref="S875:T875"/>
+    <mergeCell ref="A855:C855"/>
+    <mergeCell ref="A862:T862"/>
+    <mergeCell ref="D863:E863"/>
+    <mergeCell ref="F863:I863"/>
+    <mergeCell ref="J863:L863"/>
+    <mergeCell ref="M863:O863"/>
+    <mergeCell ref="P863:R863"/>
+    <mergeCell ref="S863:T863"/>
+    <mergeCell ref="A843:C843"/>
+    <mergeCell ref="A852:T852"/>
+    <mergeCell ref="D853:E853"/>
+    <mergeCell ref="F853:I853"/>
+    <mergeCell ref="J853:L853"/>
+    <mergeCell ref="M853:O853"/>
+    <mergeCell ref="P853:R853"/>
+    <mergeCell ref="S853:T853"/>
+    <mergeCell ref="A833:C833"/>
+    <mergeCell ref="A840:T840"/>
+    <mergeCell ref="D841:E841"/>
+    <mergeCell ref="F841:I841"/>
+    <mergeCell ref="J841:L841"/>
+    <mergeCell ref="M841:O841"/>
+    <mergeCell ref="P841:R841"/>
+    <mergeCell ref="S841:T841"/>
+    <mergeCell ref="A816:C816"/>
+    <mergeCell ref="A830:T830"/>
+    <mergeCell ref="D831:E831"/>
+    <mergeCell ref="F831:I831"/>
+    <mergeCell ref="J831:L831"/>
+    <mergeCell ref="M831:O831"/>
+    <mergeCell ref="P831:R831"/>
+    <mergeCell ref="S831:T831"/>
+    <mergeCell ref="A804:C804"/>
+    <mergeCell ref="A813:T813"/>
+    <mergeCell ref="D814:E814"/>
+    <mergeCell ref="F814:I814"/>
+    <mergeCell ref="J814:L814"/>
+    <mergeCell ref="M814:O814"/>
+    <mergeCell ref="P814:R814"/>
+    <mergeCell ref="S814:T814"/>
+    <mergeCell ref="A792:C792"/>
+    <mergeCell ref="A801:T801"/>
+    <mergeCell ref="D802:E802"/>
+    <mergeCell ref="F802:I802"/>
+    <mergeCell ref="J802:L802"/>
+    <mergeCell ref="M802:O802"/>
+    <mergeCell ref="P802:R802"/>
+    <mergeCell ref="S802:T802"/>
+    <mergeCell ref="A789:T789"/>
+    <mergeCell ref="D790:E790"/>
+    <mergeCell ref="F790:I790"/>
+    <mergeCell ref="J790:L790"/>
+    <mergeCell ref="M790:O790"/>
+    <mergeCell ref="P790:R790"/>
+    <mergeCell ref="S790:T790"/>
+    <mergeCell ref="A778:C778"/>
+    <mergeCell ref="A788:T788"/>
+    <mergeCell ref="A765:C765"/>
+    <mergeCell ref="A775:T775"/>
+    <mergeCell ref="D776:E776"/>
+    <mergeCell ref="F776:I776"/>
+    <mergeCell ref="J776:L776"/>
+    <mergeCell ref="M776:O776"/>
+    <mergeCell ref="P776:R776"/>
+    <mergeCell ref="S776:T776"/>
+    <mergeCell ref="A754:C754"/>
+    <mergeCell ref="A762:T762"/>
+    <mergeCell ref="D763:E763"/>
+    <mergeCell ref="F763:I763"/>
+    <mergeCell ref="J763:L763"/>
+    <mergeCell ref="M763:O763"/>
+    <mergeCell ref="P763:R763"/>
+    <mergeCell ref="S763:T763"/>
+    <mergeCell ref="A743:C743"/>
+    <mergeCell ref="A751:T751"/>
+    <mergeCell ref="D752:E752"/>
+    <mergeCell ref="F752:I752"/>
+    <mergeCell ref="J752:L752"/>
+    <mergeCell ref="M752:O752"/>
+    <mergeCell ref="P752:R752"/>
+    <mergeCell ref="S752:T752"/>
+    <mergeCell ref="A732:C732"/>
+    <mergeCell ref="A740:T740"/>
+    <mergeCell ref="D741:E741"/>
+    <mergeCell ref="F741:I741"/>
+    <mergeCell ref="J741:L741"/>
+    <mergeCell ref="M741:O741"/>
+    <mergeCell ref="P741:R741"/>
+    <mergeCell ref="S741:T741"/>
+    <mergeCell ref="A722:C722"/>
+    <mergeCell ref="A729:T729"/>
+    <mergeCell ref="D730:E730"/>
+    <mergeCell ref="F730:I730"/>
+    <mergeCell ref="J730:L730"/>
+    <mergeCell ref="M730:O730"/>
+    <mergeCell ref="P730:R730"/>
+    <mergeCell ref="S730:T730"/>
+    <mergeCell ref="A712:C712"/>
+    <mergeCell ref="A719:T719"/>
+    <mergeCell ref="D720:E720"/>
+    <mergeCell ref="F720:I720"/>
+    <mergeCell ref="J720:L720"/>
+    <mergeCell ref="M720:O720"/>
+    <mergeCell ref="P720:R720"/>
+    <mergeCell ref="S720:T720"/>
+    <mergeCell ref="A700:C700"/>
+    <mergeCell ref="A709:T709"/>
+    <mergeCell ref="D710:E710"/>
+    <mergeCell ref="F710:I710"/>
+    <mergeCell ref="J710:L710"/>
+    <mergeCell ref="M710:O710"/>
+    <mergeCell ref="P710:R710"/>
+    <mergeCell ref="S710:T710"/>
+    <mergeCell ref="A690:C690"/>
+    <mergeCell ref="A697:T697"/>
+    <mergeCell ref="D698:E698"/>
+    <mergeCell ref="F698:I698"/>
+    <mergeCell ref="J698:L698"/>
+    <mergeCell ref="M698:O698"/>
+    <mergeCell ref="P698:R698"/>
+    <mergeCell ref="S698:T698"/>
+    <mergeCell ref="A680:C680"/>
+    <mergeCell ref="A687:T687"/>
+    <mergeCell ref="D688:E688"/>
+    <mergeCell ref="F688:I688"/>
+    <mergeCell ref="J688:L688"/>
+    <mergeCell ref="M688:O688"/>
+    <mergeCell ref="P688:R688"/>
+    <mergeCell ref="S688:T688"/>
+    <mergeCell ref="A670:C670"/>
+    <mergeCell ref="A677:T677"/>
+    <mergeCell ref="D678:E678"/>
+    <mergeCell ref="F678:I678"/>
+    <mergeCell ref="J678:L678"/>
+    <mergeCell ref="M678:O678"/>
+    <mergeCell ref="P678:R678"/>
+    <mergeCell ref="S678:T678"/>
+    <mergeCell ref="A660:C660"/>
+    <mergeCell ref="A667:T667"/>
+    <mergeCell ref="D668:E668"/>
+    <mergeCell ref="F668:I668"/>
+    <mergeCell ref="J668:L668"/>
+    <mergeCell ref="M668:O668"/>
+    <mergeCell ref="P668:R668"/>
+    <mergeCell ref="S668:T668"/>
+    <mergeCell ref="A650:C650"/>
+    <mergeCell ref="A657:T657"/>
+    <mergeCell ref="D658:E658"/>
+    <mergeCell ref="F658:I658"/>
+    <mergeCell ref="J658:L658"/>
+    <mergeCell ref="M658:O658"/>
+    <mergeCell ref="P658:R658"/>
+    <mergeCell ref="S658:T658"/>
+    <mergeCell ref="A640:C640"/>
+    <mergeCell ref="A647:T647"/>
+    <mergeCell ref="D648:E648"/>
+    <mergeCell ref="F648:I648"/>
+    <mergeCell ref="J648:L648"/>
+    <mergeCell ref="M648:O648"/>
+    <mergeCell ref="P648:R648"/>
+    <mergeCell ref="S648:T648"/>
+    <mergeCell ref="A630:C630"/>
+    <mergeCell ref="A637:T637"/>
+    <mergeCell ref="D638:E638"/>
+    <mergeCell ref="F638:I638"/>
+    <mergeCell ref="J638:L638"/>
+    <mergeCell ref="M638:O638"/>
+    <mergeCell ref="P638:R638"/>
+    <mergeCell ref="S638:T638"/>
+    <mergeCell ref="A620:C620"/>
+    <mergeCell ref="A627:T627"/>
+    <mergeCell ref="D628:E628"/>
+    <mergeCell ref="F628:I628"/>
+    <mergeCell ref="J628:L628"/>
+    <mergeCell ref="M628:O628"/>
+    <mergeCell ref="P628:R628"/>
+    <mergeCell ref="S628:T628"/>
+    <mergeCell ref="A610:C610"/>
+    <mergeCell ref="A617:T617"/>
+    <mergeCell ref="D618:E618"/>
+    <mergeCell ref="F618:I618"/>
+    <mergeCell ref="J618:L618"/>
+    <mergeCell ref="M618:O618"/>
+    <mergeCell ref="P618:R618"/>
+    <mergeCell ref="S618:T618"/>
+    <mergeCell ref="A600:C600"/>
+    <mergeCell ref="A607:T607"/>
+    <mergeCell ref="D608:E608"/>
+    <mergeCell ref="F608:I608"/>
+    <mergeCell ref="J608:L608"/>
+    <mergeCell ref="M608:O608"/>
+    <mergeCell ref="P608:R608"/>
+    <mergeCell ref="S608:T608"/>
+    <mergeCell ref="A597:T597"/>
+    <mergeCell ref="D598:E598"/>
+    <mergeCell ref="F598:I598"/>
+    <mergeCell ref="J598:L598"/>
+    <mergeCell ref="M598:O598"/>
+    <mergeCell ref="P598:R598"/>
+    <mergeCell ref="S598:T598"/>
+    <mergeCell ref="A589:C589"/>
+    <mergeCell ref="A596:T596"/>
+    <mergeCell ref="A579:C579"/>
+    <mergeCell ref="A586:T586"/>
+    <mergeCell ref="D587:E587"/>
+    <mergeCell ref="F587:I587"/>
+    <mergeCell ref="J587:L587"/>
+    <mergeCell ref="M587:O587"/>
+    <mergeCell ref="P587:R587"/>
+    <mergeCell ref="S587:T587"/>
+    <mergeCell ref="A565:C565"/>
+    <mergeCell ref="A576:T576"/>
+    <mergeCell ref="D577:E577"/>
+    <mergeCell ref="F577:I577"/>
+    <mergeCell ref="J577:L577"/>
+    <mergeCell ref="M577:O577"/>
+    <mergeCell ref="P577:R577"/>
+    <mergeCell ref="S577:T577"/>
+    <mergeCell ref="A555:C555"/>
+    <mergeCell ref="A562:T562"/>
+    <mergeCell ref="D563:E563"/>
+    <mergeCell ref="F563:I563"/>
+    <mergeCell ref="J563:L563"/>
+    <mergeCell ref="M563:O563"/>
+    <mergeCell ref="P563:R563"/>
+    <mergeCell ref="S563:T563"/>
+    <mergeCell ref="A545:C545"/>
+    <mergeCell ref="A552:T552"/>
+    <mergeCell ref="D553:E553"/>
+    <mergeCell ref="F553:I553"/>
+    <mergeCell ref="J553:L553"/>
+    <mergeCell ref="M553:O553"/>
+    <mergeCell ref="P553:R553"/>
+    <mergeCell ref="S553:T553"/>
+    <mergeCell ref="A542:T542"/>
+    <mergeCell ref="D543:E543"/>
+    <mergeCell ref="F543:I543"/>
+    <mergeCell ref="J543:L543"/>
+    <mergeCell ref="M543:O543"/>
+    <mergeCell ref="P543:R543"/>
+    <mergeCell ref="S543:T543"/>
+    <mergeCell ref="A531:C531"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="A528:T528"/>
+    <mergeCell ref="D529:E529"/>
+    <mergeCell ref="F529:I529"/>
+    <mergeCell ref="J529:L529"/>
+    <mergeCell ref="M529:O529"/>
+    <mergeCell ref="P529:R529"/>
+    <mergeCell ref="S529:T529"/>
+    <mergeCell ref="A509:C509"/>
+    <mergeCell ref="A516:T516"/>
+    <mergeCell ref="D517:E517"/>
+    <mergeCell ref="F517:I517"/>
+    <mergeCell ref="J517:L517"/>
+    <mergeCell ref="M517:O517"/>
+    <mergeCell ref="P517:R517"/>
+    <mergeCell ref="S517:T517"/>
+    <mergeCell ref="A499:C499"/>
+    <mergeCell ref="A506:T506"/>
+    <mergeCell ref="D507:E507"/>
+    <mergeCell ref="F507:I507"/>
+    <mergeCell ref="J507:L507"/>
+    <mergeCell ref="M507:O507"/>
+    <mergeCell ref="P507:R507"/>
+    <mergeCell ref="S507:T507"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A496:T496"/>
+    <mergeCell ref="D497:E497"/>
+    <mergeCell ref="F497:I497"/>
+    <mergeCell ref="J497:L497"/>
+    <mergeCell ref="M497:O497"/>
+    <mergeCell ref="P497:R497"/>
+    <mergeCell ref="S497:T497"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A481:T481"/>
+    <mergeCell ref="D482:E482"/>
+    <mergeCell ref="F482:I482"/>
+    <mergeCell ref="J482:L482"/>
+    <mergeCell ref="M482:O482"/>
+    <mergeCell ref="P482:R482"/>
+    <mergeCell ref="S482:T482"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="A471:T471"/>
+    <mergeCell ref="D472:E472"/>
+    <mergeCell ref="F472:I472"/>
+    <mergeCell ref="J472:L472"/>
+    <mergeCell ref="M472:O472"/>
+    <mergeCell ref="P472:R472"/>
+    <mergeCell ref="S472:T472"/>
+    <mergeCell ref="A461:T461"/>
+    <mergeCell ref="D462:E462"/>
+    <mergeCell ref="F462:I462"/>
+    <mergeCell ref="J462:L462"/>
+    <mergeCell ref="M462:O462"/>
+    <mergeCell ref="P462:R462"/>
+    <mergeCell ref="S462:T462"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="A460:T460"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A445:T445"/>
+    <mergeCell ref="D446:E446"/>
+    <mergeCell ref="F446:I446"/>
+    <mergeCell ref="J446:L446"/>
+    <mergeCell ref="M446:O446"/>
+    <mergeCell ref="P446:R446"/>
+    <mergeCell ref="S446:T446"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="A432:T432"/>
+    <mergeCell ref="D433:E433"/>
+    <mergeCell ref="F433:I433"/>
+    <mergeCell ref="J433:L433"/>
+    <mergeCell ref="M433:O433"/>
+    <mergeCell ref="P433:R433"/>
+    <mergeCell ref="S433:T433"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A419:T419"/>
+    <mergeCell ref="D420:E420"/>
+    <mergeCell ref="F420:I420"/>
+    <mergeCell ref="J420:L420"/>
+    <mergeCell ref="M420:O420"/>
+    <mergeCell ref="P420:R420"/>
+    <mergeCell ref="S420:T420"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A406:T406"/>
+    <mergeCell ref="D407:E407"/>
+    <mergeCell ref="F407:I407"/>
+    <mergeCell ref="J407:L407"/>
+    <mergeCell ref="M407:O407"/>
+    <mergeCell ref="P407:R407"/>
+    <mergeCell ref="S407:T407"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A393:T393"/>
+    <mergeCell ref="D394:E394"/>
+    <mergeCell ref="F394:I394"/>
+    <mergeCell ref="J394:L394"/>
+    <mergeCell ref="M394:O394"/>
+    <mergeCell ref="P394:R394"/>
+    <mergeCell ref="S394:T394"/>
+    <mergeCell ref="A380:T380"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="F381:I381"/>
+    <mergeCell ref="J381:L381"/>
+    <mergeCell ref="M381:O381"/>
+    <mergeCell ref="P381:R381"/>
+    <mergeCell ref="S381:T381"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A367:T367"/>
+    <mergeCell ref="D368:E368"/>
+    <mergeCell ref="F368:I368"/>
+    <mergeCell ref="J368:L368"/>
+    <mergeCell ref="M368:O368"/>
+    <mergeCell ref="P368:R368"/>
+    <mergeCell ref="S368:T368"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A354:T354"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="F355:I355"/>
+    <mergeCell ref="J355:L355"/>
+    <mergeCell ref="M355:O355"/>
+    <mergeCell ref="P355:R355"/>
+    <mergeCell ref="S355:T355"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A341:T341"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="F342:I342"/>
+    <mergeCell ref="J342:L342"/>
+    <mergeCell ref="M342:O342"/>
+    <mergeCell ref="P342:R342"/>
+    <mergeCell ref="S342:T342"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A328:T328"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="F329:I329"/>
+    <mergeCell ref="J329:L329"/>
+    <mergeCell ref="M329:O329"/>
+    <mergeCell ref="P329:R329"/>
+    <mergeCell ref="S329:T329"/>
+    <mergeCell ref="A315:T315"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="F316:I316"/>
+    <mergeCell ref="J316:L316"/>
+    <mergeCell ref="M316:O316"/>
+    <mergeCell ref="P316:R316"/>
+    <mergeCell ref="S316:T316"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A314:T314"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A302:T302"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="F303:I303"/>
+    <mergeCell ref="J303:L303"/>
+    <mergeCell ref="M303:O303"/>
+    <mergeCell ref="P303:R303"/>
+    <mergeCell ref="S303:T303"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A290:T290"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:I291"/>
+    <mergeCell ref="J291:L291"/>
+    <mergeCell ref="M291:O291"/>
+    <mergeCell ref="P291:R291"/>
+    <mergeCell ref="S291:T291"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A278:T278"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:I279"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="P279:R279"/>
+    <mergeCell ref="S279:T279"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A266:T266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="F267:I267"/>
+    <mergeCell ref="J267:L267"/>
+    <mergeCell ref="M267:O267"/>
+    <mergeCell ref="P267:R267"/>
+    <mergeCell ref="S267:T267"/>
+    <mergeCell ref="A254:T254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:I255"/>
+    <mergeCell ref="J255:L255"/>
+    <mergeCell ref="M255:O255"/>
+    <mergeCell ref="P255:R255"/>
+    <mergeCell ref="S255:T255"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A253:T253"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A239:T239"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:I240"/>
+    <mergeCell ref="J240:L240"/>
+    <mergeCell ref="M240:O240"/>
+    <mergeCell ref="P240:R240"/>
+    <mergeCell ref="S240:T240"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A229:T229"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="J230:L230"/>
+    <mergeCell ref="M230:O230"/>
+    <mergeCell ref="P230:R230"/>
+    <mergeCell ref="S230:T230"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A219:T219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="F220:I220"/>
+    <mergeCell ref="J220:L220"/>
+    <mergeCell ref="M220:O220"/>
+    <mergeCell ref="P220:R220"/>
+    <mergeCell ref="S220:T220"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A206:T206"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F207:I207"/>
+    <mergeCell ref="J207:L207"/>
+    <mergeCell ref="M207:O207"/>
+    <mergeCell ref="P207:R207"/>
+    <mergeCell ref="S207:T207"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A195:T195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="F196:I196"/>
+    <mergeCell ref="J196:L196"/>
+    <mergeCell ref="M196:O196"/>
+    <mergeCell ref="P196:R196"/>
+    <mergeCell ref="S196:T196"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A182:T182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F183:I183"/>
+    <mergeCell ref="J183:L183"/>
+    <mergeCell ref="M183:O183"/>
+    <mergeCell ref="P183:R183"/>
+    <mergeCell ref="S183:T183"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A169:T169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:I170"/>
+    <mergeCell ref="J170:L170"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:R170"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A157:T157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:L158"/>
+    <mergeCell ref="M158:O158"/>
+    <mergeCell ref="P158:R158"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A145:T145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="J146:L146"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="P146:R146"/>
+    <mergeCell ref="S146:T146"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A133:T133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="M134:O134"/>
+    <mergeCell ref="P134:R134"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A121:T121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="P122:R122"/>
+    <mergeCell ref="S122:T122"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A109:T109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="P110:R110"/>
+    <mergeCell ref="S110:T110"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A97:T97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="P98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A85:T85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A73:T73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A61:T61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A49:T49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:T50"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A37:T37"/>
     <mergeCell ref="D38:E38"/>
@@ -65647,1295 +66964,6 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A73:T73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A61:T61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A49:T49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A109:T109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="P110:R110"/>
-    <mergeCell ref="S110:T110"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A97:T97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="P98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A85:T85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A145:T145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="J146:L146"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="P146:R146"/>
-    <mergeCell ref="S146:T146"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A133:T133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="M134:O134"/>
-    <mergeCell ref="P134:R134"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A121:T121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="P122:R122"/>
-    <mergeCell ref="S122:T122"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A182:T182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="F183:I183"/>
-    <mergeCell ref="J183:L183"/>
-    <mergeCell ref="M183:O183"/>
-    <mergeCell ref="P183:R183"/>
-    <mergeCell ref="S183:T183"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A169:T169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:I170"/>
-    <mergeCell ref="J170:L170"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:R170"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A157:T157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:L158"/>
-    <mergeCell ref="M158:O158"/>
-    <mergeCell ref="P158:R158"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A219:T219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="F220:I220"/>
-    <mergeCell ref="J220:L220"/>
-    <mergeCell ref="M220:O220"/>
-    <mergeCell ref="P220:R220"/>
-    <mergeCell ref="S220:T220"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A206:T206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F207:I207"/>
-    <mergeCell ref="J207:L207"/>
-    <mergeCell ref="M207:O207"/>
-    <mergeCell ref="P207:R207"/>
-    <mergeCell ref="S207:T207"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A195:T195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="F196:I196"/>
-    <mergeCell ref="J196:L196"/>
-    <mergeCell ref="M196:O196"/>
-    <mergeCell ref="P196:R196"/>
-    <mergeCell ref="S196:T196"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A253:T253"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A239:T239"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:I240"/>
-    <mergeCell ref="J240:L240"/>
-    <mergeCell ref="M240:O240"/>
-    <mergeCell ref="P240:R240"/>
-    <mergeCell ref="S240:T240"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A229:T229"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="J230:L230"/>
-    <mergeCell ref="M230:O230"/>
-    <mergeCell ref="P230:R230"/>
-    <mergeCell ref="S230:T230"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A278:T278"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:I279"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="P279:R279"/>
-    <mergeCell ref="S279:T279"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A266:T266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="F267:I267"/>
-    <mergeCell ref="J267:L267"/>
-    <mergeCell ref="M267:O267"/>
-    <mergeCell ref="P267:R267"/>
-    <mergeCell ref="S267:T267"/>
-    <mergeCell ref="A254:T254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:I255"/>
-    <mergeCell ref="J255:L255"/>
-    <mergeCell ref="M255:O255"/>
-    <mergeCell ref="P255:R255"/>
-    <mergeCell ref="S255:T255"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A314:T314"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A302:T302"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="F303:I303"/>
-    <mergeCell ref="J303:L303"/>
-    <mergeCell ref="M303:O303"/>
-    <mergeCell ref="P303:R303"/>
-    <mergeCell ref="S303:T303"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A290:T290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:I291"/>
-    <mergeCell ref="J291:L291"/>
-    <mergeCell ref="M291:O291"/>
-    <mergeCell ref="P291:R291"/>
-    <mergeCell ref="S291:T291"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A341:T341"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="F342:I342"/>
-    <mergeCell ref="J342:L342"/>
-    <mergeCell ref="M342:O342"/>
-    <mergeCell ref="P342:R342"/>
-    <mergeCell ref="S342:T342"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A328:T328"/>
-    <mergeCell ref="D329:E329"/>
-    <mergeCell ref="F329:I329"/>
-    <mergeCell ref="J329:L329"/>
-    <mergeCell ref="M329:O329"/>
-    <mergeCell ref="P329:R329"/>
-    <mergeCell ref="S329:T329"/>
-    <mergeCell ref="A315:T315"/>
-    <mergeCell ref="D316:E316"/>
-    <mergeCell ref="F316:I316"/>
-    <mergeCell ref="J316:L316"/>
-    <mergeCell ref="M316:O316"/>
-    <mergeCell ref="P316:R316"/>
-    <mergeCell ref="S316:T316"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="A367:T367"/>
-    <mergeCell ref="D368:E368"/>
-    <mergeCell ref="F368:I368"/>
-    <mergeCell ref="J368:L368"/>
-    <mergeCell ref="M368:O368"/>
-    <mergeCell ref="P368:R368"/>
-    <mergeCell ref="S368:T368"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A354:T354"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="F355:I355"/>
-    <mergeCell ref="J355:L355"/>
-    <mergeCell ref="M355:O355"/>
-    <mergeCell ref="P355:R355"/>
-    <mergeCell ref="S355:T355"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A406:T406"/>
-    <mergeCell ref="D407:E407"/>
-    <mergeCell ref="F407:I407"/>
-    <mergeCell ref="J407:L407"/>
-    <mergeCell ref="M407:O407"/>
-    <mergeCell ref="P407:R407"/>
-    <mergeCell ref="S407:T407"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A393:T393"/>
-    <mergeCell ref="D394:E394"/>
-    <mergeCell ref="F394:I394"/>
-    <mergeCell ref="J394:L394"/>
-    <mergeCell ref="M394:O394"/>
-    <mergeCell ref="P394:R394"/>
-    <mergeCell ref="S394:T394"/>
-    <mergeCell ref="A380:T380"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="F381:I381"/>
-    <mergeCell ref="J381:L381"/>
-    <mergeCell ref="M381:O381"/>
-    <mergeCell ref="P381:R381"/>
-    <mergeCell ref="S381:T381"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A445:T445"/>
-    <mergeCell ref="D446:E446"/>
-    <mergeCell ref="F446:I446"/>
-    <mergeCell ref="J446:L446"/>
-    <mergeCell ref="M446:O446"/>
-    <mergeCell ref="P446:R446"/>
-    <mergeCell ref="S446:T446"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="A432:T432"/>
-    <mergeCell ref="D433:E433"/>
-    <mergeCell ref="F433:I433"/>
-    <mergeCell ref="J433:L433"/>
-    <mergeCell ref="M433:O433"/>
-    <mergeCell ref="P433:R433"/>
-    <mergeCell ref="S433:T433"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A419:T419"/>
-    <mergeCell ref="D420:E420"/>
-    <mergeCell ref="F420:I420"/>
-    <mergeCell ref="J420:L420"/>
-    <mergeCell ref="M420:O420"/>
-    <mergeCell ref="P420:R420"/>
-    <mergeCell ref="S420:T420"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="A471:T471"/>
-    <mergeCell ref="D472:E472"/>
-    <mergeCell ref="F472:I472"/>
-    <mergeCell ref="J472:L472"/>
-    <mergeCell ref="M472:O472"/>
-    <mergeCell ref="P472:R472"/>
-    <mergeCell ref="S472:T472"/>
-    <mergeCell ref="A461:T461"/>
-    <mergeCell ref="D462:E462"/>
-    <mergeCell ref="F462:I462"/>
-    <mergeCell ref="J462:L462"/>
-    <mergeCell ref="M462:O462"/>
-    <mergeCell ref="P462:R462"/>
-    <mergeCell ref="S462:T462"/>
-    <mergeCell ref="A448:C448"/>
-    <mergeCell ref="A460:T460"/>
-    <mergeCell ref="A499:C499"/>
-    <mergeCell ref="A506:T506"/>
-    <mergeCell ref="D507:E507"/>
-    <mergeCell ref="F507:I507"/>
-    <mergeCell ref="J507:L507"/>
-    <mergeCell ref="M507:O507"/>
-    <mergeCell ref="P507:R507"/>
-    <mergeCell ref="S507:T507"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A496:T496"/>
-    <mergeCell ref="D497:E497"/>
-    <mergeCell ref="F497:I497"/>
-    <mergeCell ref="J497:L497"/>
-    <mergeCell ref="M497:O497"/>
-    <mergeCell ref="P497:R497"/>
-    <mergeCell ref="S497:T497"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A481:T481"/>
-    <mergeCell ref="D482:E482"/>
-    <mergeCell ref="F482:I482"/>
-    <mergeCell ref="J482:L482"/>
-    <mergeCell ref="M482:O482"/>
-    <mergeCell ref="P482:R482"/>
-    <mergeCell ref="S482:T482"/>
-    <mergeCell ref="A531:C531"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="A528:T528"/>
-    <mergeCell ref="D529:E529"/>
-    <mergeCell ref="F529:I529"/>
-    <mergeCell ref="J529:L529"/>
-    <mergeCell ref="M529:O529"/>
-    <mergeCell ref="P529:R529"/>
-    <mergeCell ref="S529:T529"/>
-    <mergeCell ref="A509:C509"/>
-    <mergeCell ref="A516:T516"/>
-    <mergeCell ref="D517:E517"/>
-    <mergeCell ref="F517:I517"/>
-    <mergeCell ref="J517:L517"/>
-    <mergeCell ref="M517:O517"/>
-    <mergeCell ref="P517:R517"/>
-    <mergeCell ref="S517:T517"/>
-    <mergeCell ref="A555:C555"/>
-    <mergeCell ref="A562:T562"/>
-    <mergeCell ref="D563:E563"/>
-    <mergeCell ref="F563:I563"/>
-    <mergeCell ref="J563:L563"/>
-    <mergeCell ref="M563:O563"/>
-    <mergeCell ref="P563:R563"/>
-    <mergeCell ref="S563:T563"/>
-    <mergeCell ref="A545:C545"/>
-    <mergeCell ref="A552:T552"/>
-    <mergeCell ref="D553:E553"/>
-    <mergeCell ref="F553:I553"/>
-    <mergeCell ref="J553:L553"/>
-    <mergeCell ref="M553:O553"/>
-    <mergeCell ref="P553:R553"/>
-    <mergeCell ref="S553:T553"/>
-    <mergeCell ref="A542:T542"/>
-    <mergeCell ref="D543:E543"/>
-    <mergeCell ref="F543:I543"/>
-    <mergeCell ref="J543:L543"/>
-    <mergeCell ref="M543:O543"/>
-    <mergeCell ref="P543:R543"/>
-    <mergeCell ref="S543:T543"/>
-    <mergeCell ref="A589:C589"/>
-    <mergeCell ref="A596:T596"/>
-    <mergeCell ref="A579:C579"/>
-    <mergeCell ref="A586:T586"/>
-    <mergeCell ref="D587:E587"/>
-    <mergeCell ref="F587:I587"/>
-    <mergeCell ref="J587:L587"/>
-    <mergeCell ref="M587:O587"/>
-    <mergeCell ref="P587:R587"/>
-    <mergeCell ref="S587:T587"/>
-    <mergeCell ref="A565:C565"/>
-    <mergeCell ref="A576:T576"/>
-    <mergeCell ref="D577:E577"/>
-    <mergeCell ref="F577:I577"/>
-    <mergeCell ref="J577:L577"/>
-    <mergeCell ref="M577:O577"/>
-    <mergeCell ref="P577:R577"/>
-    <mergeCell ref="S577:T577"/>
-    <mergeCell ref="A610:C610"/>
-    <mergeCell ref="A617:T617"/>
-    <mergeCell ref="D618:E618"/>
-    <mergeCell ref="F618:I618"/>
-    <mergeCell ref="J618:L618"/>
-    <mergeCell ref="M618:O618"/>
-    <mergeCell ref="P618:R618"/>
-    <mergeCell ref="S618:T618"/>
-    <mergeCell ref="A600:C600"/>
-    <mergeCell ref="A607:T607"/>
-    <mergeCell ref="D608:E608"/>
-    <mergeCell ref="F608:I608"/>
-    <mergeCell ref="J608:L608"/>
-    <mergeCell ref="M608:O608"/>
-    <mergeCell ref="P608:R608"/>
-    <mergeCell ref="S608:T608"/>
-    <mergeCell ref="A597:T597"/>
-    <mergeCell ref="D598:E598"/>
-    <mergeCell ref="F598:I598"/>
-    <mergeCell ref="J598:L598"/>
-    <mergeCell ref="M598:O598"/>
-    <mergeCell ref="P598:R598"/>
-    <mergeCell ref="S598:T598"/>
-    <mergeCell ref="A640:C640"/>
-    <mergeCell ref="A647:T647"/>
-    <mergeCell ref="D648:E648"/>
-    <mergeCell ref="F648:I648"/>
-    <mergeCell ref="J648:L648"/>
-    <mergeCell ref="M648:O648"/>
-    <mergeCell ref="P648:R648"/>
-    <mergeCell ref="S648:T648"/>
-    <mergeCell ref="A630:C630"/>
-    <mergeCell ref="A637:T637"/>
-    <mergeCell ref="D638:E638"/>
-    <mergeCell ref="F638:I638"/>
-    <mergeCell ref="J638:L638"/>
-    <mergeCell ref="M638:O638"/>
-    <mergeCell ref="P638:R638"/>
-    <mergeCell ref="S638:T638"/>
-    <mergeCell ref="A620:C620"/>
-    <mergeCell ref="A627:T627"/>
-    <mergeCell ref="D628:E628"/>
-    <mergeCell ref="F628:I628"/>
-    <mergeCell ref="J628:L628"/>
-    <mergeCell ref="M628:O628"/>
-    <mergeCell ref="P628:R628"/>
-    <mergeCell ref="S628:T628"/>
-    <mergeCell ref="A670:C670"/>
-    <mergeCell ref="A677:T677"/>
-    <mergeCell ref="D678:E678"/>
-    <mergeCell ref="F678:I678"/>
-    <mergeCell ref="J678:L678"/>
-    <mergeCell ref="M678:O678"/>
-    <mergeCell ref="P678:R678"/>
-    <mergeCell ref="S678:T678"/>
-    <mergeCell ref="A660:C660"/>
-    <mergeCell ref="A667:T667"/>
-    <mergeCell ref="D668:E668"/>
-    <mergeCell ref="F668:I668"/>
-    <mergeCell ref="J668:L668"/>
-    <mergeCell ref="M668:O668"/>
-    <mergeCell ref="P668:R668"/>
-    <mergeCell ref="S668:T668"/>
-    <mergeCell ref="A650:C650"/>
-    <mergeCell ref="A657:T657"/>
-    <mergeCell ref="D658:E658"/>
-    <mergeCell ref="F658:I658"/>
-    <mergeCell ref="J658:L658"/>
-    <mergeCell ref="M658:O658"/>
-    <mergeCell ref="P658:R658"/>
-    <mergeCell ref="S658:T658"/>
-    <mergeCell ref="A700:C700"/>
-    <mergeCell ref="A709:T709"/>
-    <mergeCell ref="D710:E710"/>
-    <mergeCell ref="F710:I710"/>
-    <mergeCell ref="J710:L710"/>
-    <mergeCell ref="M710:O710"/>
-    <mergeCell ref="P710:R710"/>
-    <mergeCell ref="S710:T710"/>
-    <mergeCell ref="A690:C690"/>
-    <mergeCell ref="A697:T697"/>
-    <mergeCell ref="D698:E698"/>
-    <mergeCell ref="F698:I698"/>
-    <mergeCell ref="J698:L698"/>
-    <mergeCell ref="M698:O698"/>
-    <mergeCell ref="P698:R698"/>
-    <mergeCell ref="S698:T698"/>
-    <mergeCell ref="A680:C680"/>
-    <mergeCell ref="A687:T687"/>
-    <mergeCell ref="D688:E688"/>
-    <mergeCell ref="F688:I688"/>
-    <mergeCell ref="J688:L688"/>
-    <mergeCell ref="M688:O688"/>
-    <mergeCell ref="P688:R688"/>
-    <mergeCell ref="S688:T688"/>
-    <mergeCell ref="A732:C732"/>
-    <mergeCell ref="A740:T740"/>
-    <mergeCell ref="D741:E741"/>
-    <mergeCell ref="F741:I741"/>
-    <mergeCell ref="J741:L741"/>
-    <mergeCell ref="M741:O741"/>
-    <mergeCell ref="P741:R741"/>
-    <mergeCell ref="S741:T741"/>
-    <mergeCell ref="A722:C722"/>
-    <mergeCell ref="A729:T729"/>
-    <mergeCell ref="D730:E730"/>
-    <mergeCell ref="F730:I730"/>
-    <mergeCell ref="J730:L730"/>
-    <mergeCell ref="M730:O730"/>
-    <mergeCell ref="P730:R730"/>
-    <mergeCell ref="S730:T730"/>
-    <mergeCell ref="A712:C712"/>
-    <mergeCell ref="A719:T719"/>
-    <mergeCell ref="D720:E720"/>
-    <mergeCell ref="F720:I720"/>
-    <mergeCell ref="J720:L720"/>
-    <mergeCell ref="M720:O720"/>
-    <mergeCell ref="P720:R720"/>
-    <mergeCell ref="S720:T720"/>
-    <mergeCell ref="A765:C765"/>
-    <mergeCell ref="A775:T775"/>
-    <mergeCell ref="D776:E776"/>
-    <mergeCell ref="F776:I776"/>
-    <mergeCell ref="J776:L776"/>
-    <mergeCell ref="M776:O776"/>
-    <mergeCell ref="P776:R776"/>
-    <mergeCell ref="S776:T776"/>
-    <mergeCell ref="A754:C754"/>
-    <mergeCell ref="A762:T762"/>
-    <mergeCell ref="D763:E763"/>
-    <mergeCell ref="F763:I763"/>
-    <mergeCell ref="J763:L763"/>
-    <mergeCell ref="M763:O763"/>
-    <mergeCell ref="P763:R763"/>
-    <mergeCell ref="S763:T763"/>
-    <mergeCell ref="A743:C743"/>
-    <mergeCell ref="A751:T751"/>
-    <mergeCell ref="D752:E752"/>
-    <mergeCell ref="F752:I752"/>
-    <mergeCell ref="J752:L752"/>
-    <mergeCell ref="M752:O752"/>
-    <mergeCell ref="P752:R752"/>
-    <mergeCell ref="S752:T752"/>
-    <mergeCell ref="A792:C792"/>
-    <mergeCell ref="A801:T801"/>
-    <mergeCell ref="D802:E802"/>
-    <mergeCell ref="F802:I802"/>
-    <mergeCell ref="J802:L802"/>
-    <mergeCell ref="M802:O802"/>
-    <mergeCell ref="P802:R802"/>
-    <mergeCell ref="S802:T802"/>
-    <mergeCell ref="A789:T789"/>
-    <mergeCell ref="D790:E790"/>
-    <mergeCell ref="F790:I790"/>
-    <mergeCell ref="J790:L790"/>
-    <mergeCell ref="M790:O790"/>
-    <mergeCell ref="P790:R790"/>
-    <mergeCell ref="S790:T790"/>
-    <mergeCell ref="A778:C778"/>
-    <mergeCell ref="A788:T788"/>
-    <mergeCell ref="A833:C833"/>
-    <mergeCell ref="A840:T840"/>
-    <mergeCell ref="D841:E841"/>
-    <mergeCell ref="F841:I841"/>
-    <mergeCell ref="J841:L841"/>
-    <mergeCell ref="M841:O841"/>
-    <mergeCell ref="P841:R841"/>
-    <mergeCell ref="S841:T841"/>
-    <mergeCell ref="A816:C816"/>
-    <mergeCell ref="A830:T830"/>
-    <mergeCell ref="D831:E831"/>
-    <mergeCell ref="F831:I831"/>
-    <mergeCell ref="J831:L831"/>
-    <mergeCell ref="M831:O831"/>
-    <mergeCell ref="P831:R831"/>
-    <mergeCell ref="S831:T831"/>
-    <mergeCell ref="A804:C804"/>
-    <mergeCell ref="A813:T813"/>
-    <mergeCell ref="D814:E814"/>
-    <mergeCell ref="F814:I814"/>
-    <mergeCell ref="J814:L814"/>
-    <mergeCell ref="M814:O814"/>
-    <mergeCell ref="P814:R814"/>
-    <mergeCell ref="S814:T814"/>
-    <mergeCell ref="A865:C865"/>
-    <mergeCell ref="A874:T874"/>
-    <mergeCell ref="D875:E875"/>
-    <mergeCell ref="F875:I875"/>
-    <mergeCell ref="J875:L875"/>
-    <mergeCell ref="M875:O875"/>
-    <mergeCell ref="P875:R875"/>
-    <mergeCell ref="S875:T875"/>
-    <mergeCell ref="A855:C855"/>
-    <mergeCell ref="A862:T862"/>
-    <mergeCell ref="D863:E863"/>
-    <mergeCell ref="F863:I863"/>
-    <mergeCell ref="J863:L863"/>
-    <mergeCell ref="M863:O863"/>
-    <mergeCell ref="P863:R863"/>
-    <mergeCell ref="S863:T863"/>
-    <mergeCell ref="A843:C843"/>
-    <mergeCell ref="A852:T852"/>
-    <mergeCell ref="D853:E853"/>
-    <mergeCell ref="F853:I853"/>
-    <mergeCell ref="J853:L853"/>
-    <mergeCell ref="M853:O853"/>
-    <mergeCell ref="P853:R853"/>
-    <mergeCell ref="S853:T853"/>
-    <mergeCell ref="A901:C901"/>
-    <mergeCell ref="A909:T909"/>
-    <mergeCell ref="D910:E910"/>
-    <mergeCell ref="F910:I910"/>
-    <mergeCell ref="J910:L910"/>
-    <mergeCell ref="M910:O910"/>
-    <mergeCell ref="P910:R910"/>
-    <mergeCell ref="S910:T910"/>
-    <mergeCell ref="A889:C889"/>
-    <mergeCell ref="A898:T898"/>
-    <mergeCell ref="D899:E899"/>
-    <mergeCell ref="F899:I899"/>
-    <mergeCell ref="J899:L899"/>
-    <mergeCell ref="M899:O899"/>
-    <mergeCell ref="P899:R899"/>
-    <mergeCell ref="S899:T899"/>
-    <mergeCell ref="A877:C877"/>
-    <mergeCell ref="A886:T886"/>
-    <mergeCell ref="D887:E887"/>
-    <mergeCell ref="F887:I887"/>
-    <mergeCell ref="J887:L887"/>
-    <mergeCell ref="M887:O887"/>
-    <mergeCell ref="P887:R887"/>
-    <mergeCell ref="S887:T887"/>
-    <mergeCell ref="A932:C932"/>
-    <mergeCell ref="A941:T941"/>
-    <mergeCell ref="D942:E942"/>
-    <mergeCell ref="F942:I942"/>
-    <mergeCell ref="J942:L942"/>
-    <mergeCell ref="M942:O942"/>
-    <mergeCell ref="P942:R942"/>
-    <mergeCell ref="S942:T942"/>
-    <mergeCell ref="A922:C922"/>
-    <mergeCell ref="A929:T929"/>
-    <mergeCell ref="D930:E930"/>
-    <mergeCell ref="F930:I930"/>
-    <mergeCell ref="J930:L930"/>
-    <mergeCell ref="M930:O930"/>
-    <mergeCell ref="P930:R930"/>
-    <mergeCell ref="S930:T930"/>
-    <mergeCell ref="A912:C912"/>
-    <mergeCell ref="A919:T919"/>
-    <mergeCell ref="D920:E920"/>
-    <mergeCell ref="F920:I920"/>
-    <mergeCell ref="J920:L920"/>
-    <mergeCell ref="M920:O920"/>
-    <mergeCell ref="P920:R920"/>
-    <mergeCell ref="S920:T920"/>
-    <mergeCell ref="A976:T976"/>
-    <mergeCell ref="D977:E977"/>
-    <mergeCell ref="F977:I977"/>
-    <mergeCell ref="J977:L977"/>
-    <mergeCell ref="M977:O977"/>
-    <mergeCell ref="P977:R977"/>
-    <mergeCell ref="S977:T977"/>
-    <mergeCell ref="A968:C968"/>
-    <mergeCell ref="A957:C957"/>
-    <mergeCell ref="A965:T965"/>
-    <mergeCell ref="D966:E966"/>
-    <mergeCell ref="F966:I966"/>
-    <mergeCell ref="J966:L966"/>
-    <mergeCell ref="M966:O966"/>
-    <mergeCell ref="P966:R966"/>
-    <mergeCell ref="S966:T966"/>
-    <mergeCell ref="A944:C944"/>
-    <mergeCell ref="A954:T954"/>
-    <mergeCell ref="D955:E955"/>
-    <mergeCell ref="F955:I955"/>
-    <mergeCell ref="J955:L955"/>
-    <mergeCell ref="M955:O955"/>
-    <mergeCell ref="P955:R955"/>
-    <mergeCell ref="S955:T955"/>
-    <mergeCell ref="A1004:C1004"/>
-    <mergeCell ref="A1011:T1011"/>
-    <mergeCell ref="D1012:E1012"/>
-    <mergeCell ref="F1012:I1012"/>
-    <mergeCell ref="J1012:L1012"/>
-    <mergeCell ref="M1012:O1012"/>
-    <mergeCell ref="P1012:R1012"/>
-    <mergeCell ref="S1012:T1012"/>
-    <mergeCell ref="A990:C990"/>
-    <mergeCell ref="A1001:T1001"/>
-    <mergeCell ref="D1002:E1002"/>
-    <mergeCell ref="F1002:I1002"/>
-    <mergeCell ref="J1002:L1002"/>
-    <mergeCell ref="M1002:O1002"/>
-    <mergeCell ref="P1002:R1002"/>
-    <mergeCell ref="S1002:T1002"/>
-    <mergeCell ref="A979:C979"/>
-    <mergeCell ref="A987:T987"/>
-    <mergeCell ref="D988:E988"/>
-    <mergeCell ref="F988:I988"/>
-    <mergeCell ref="J988:L988"/>
-    <mergeCell ref="M988:O988"/>
-    <mergeCell ref="P988:R988"/>
-    <mergeCell ref="S988:T988"/>
-    <mergeCell ref="A1037:C1037"/>
-    <mergeCell ref="A1045:T1045"/>
-    <mergeCell ref="A1025:C1025"/>
-    <mergeCell ref="A1034:T1034"/>
-    <mergeCell ref="D1035:E1035"/>
-    <mergeCell ref="F1035:I1035"/>
-    <mergeCell ref="J1035:L1035"/>
-    <mergeCell ref="M1035:O1035"/>
-    <mergeCell ref="P1035:R1035"/>
-    <mergeCell ref="S1035:T1035"/>
-    <mergeCell ref="A1014:C1014"/>
-    <mergeCell ref="A1022:T1022"/>
-    <mergeCell ref="D1023:E1023"/>
-    <mergeCell ref="F1023:I1023"/>
-    <mergeCell ref="J1023:L1023"/>
-    <mergeCell ref="M1023:O1023"/>
-    <mergeCell ref="P1023:R1023"/>
-    <mergeCell ref="S1023:T1023"/>
-    <mergeCell ref="A1059:C1059"/>
-    <mergeCell ref="A1067:T1067"/>
-    <mergeCell ref="D1068:E1068"/>
-    <mergeCell ref="F1068:I1068"/>
-    <mergeCell ref="J1068:L1068"/>
-    <mergeCell ref="M1068:O1068"/>
-    <mergeCell ref="P1068:R1068"/>
-    <mergeCell ref="S1068:T1068"/>
-    <mergeCell ref="A1049:C1049"/>
-    <mergeCell ref="A1056:T1056"/>
-    <mergeCell ref="D1057:E1057"/>
-    <mergeCell ref="F1057:I1057"/>
-    <mergeCell ref="J1057:L1057"/>
-    <mergeCell ref="M1057:O1057"/>
-    <mergeCell ref="P1057:R1057"/>
-    <mergeCell ref="S1057:T1057"/>
-    <mergeCell ref="A1046:T1046"/>
-    <mergeCell ref="D1047:E1047"/>
-    <mergeCell ref="F1047:I1047"/>
-    <mergeCell ref="J1047:L1047"/>
-    <mergeCell ref="M1047:O1047"/>
-    <mergeCell ref="P1047:R1047"/>
-    <mergeCell ref="S1047:T1047"/>
-    <mergeCell ref="A1090:C1090"/>
-    <mergeCell ref="A1098:T1098"/>
-    <mergeCell ref="D1099:E1099"/>
-    <mergeCell ref="F1099:I1099"/>
-    <mergeCell ref="J1099:L1099"/>
-    <mergeCell ref="M1099:O1099"/>
-    <mergeCell ref="P1099:R1099"/>
-    <mergeCell ref="S1099:T1099"/>
-    <mergeCell ref="A1080:C1080"/>
-    <mergeCell ref="A1087:T1087"/>
-    <mergeCell ref="D1088:E1088"/>
-    <mergeCell ref="F1088:I1088"/>
-    <mergeCell ref="J1088:L1088"/>
-    <mergeCell ref="M1088:O1088"/>
-    <mergeCell ref="P1088:R1088"/>
-    <mergeCell ref="S1088:T1088"/>
-    <mergeCell ref="A1070:C1070"/>
-    <mergeCell ref="A1077:T1077"/>
-    <mergeCell ref="D1078:E1078"/>
-    <mergeCell ref="F1078:I1078"/>
-    <mergeCell ref="J1078:L1078"/>
-    <mergeCell ref="M1078:O1078"/>
-    <mergeCell ref="P1078:R1078"/>
-    <mergeCell ref="S1078:T1078"/>
-    <mergeCell ref="A1121:C1121"/>
-    <mergeCell ref="A1128:T1128"/>
-    <mergeCell ref="D1129:E1129"/>
-    <mergeCell ref="F1129:I1129"/>
-    <mergeCell ref="J1129:L1129"/>
-    <mergeCell ref="M1129:O1129"/>
-    <mergeCell ref="P1129:R1129"/>
-    <mergeCell ref="S1129:T1129"/>
-    <mergeCell ref="A1111:C1111"/>
-    <mergeCell ref="A1118:T1118"/>
-    <mergeCell ref="D1119:E1119"/>
-    <mergeCell ref="F1119:I1119"/>
-    <mergeCell ref="J1119:L1119"/>
-    <mergeCell ref="M1119:O1119"/>
-    <mergeCell ref="P1119:R1119"/>
-    <mergeCell ref="S1119:T1119"/>
-    <mergeCell ref="A1101:C1101"/>
-    <mergeCell ref="A1108:T1108"/>
-    <mergeCell ref="D1109:E1109"/>
-    <mergeCell ref="F1109:I1109"/>
-    <mergeCell ref="J1109:L1109"/>
-    <mergeCell ref="M1109:O1109"/>
-    <mergeCell ref="P1109:R1109"/>
-    <mergeCell ref="S1109:T1109"/>
-    <mergeCell ref="A1154:C1154"/>
-    <mergeCell ref="A1161:T1161"/>
-    <mergeCell ref="D1162:E1162"/>
-    <mergeCell ref="F1162:I1162"/>
-    <mergeCell ref="J1162:L1162"/>
-    <mergeCell ref="M1162:O1162"/>
-    <mergeCell ref="P1162:R1162"/>
-    <mergeCell ref="S1162:T1162"/>
-    <mergeCell ref="A1144:C1144"/>
-    <mergeCell ref="A1151:T1151"/>
-    <mergeCell ref="D1152:E1152"/>
-    <mergeCell ref="F1152:I1152"/>
-    <mergeCell ref="J1152:L1152"/>
-    <mergeCell ref="M1152:O1152"/>
-    <mergeCell ref="P1152:R1152"/>
-    <mergeCell ref="S1152:T1152"/>
-    <mergeCell ref="A1131:C1131"/>
-    <mergeCell ref="A1141:T1141"/>
-    <mergeCell ref="D1142:E1142"/>
-    <mergeCell ref="F1142:I1142"/>
-    <mergeCell ref="J1142:L1142"/>
-    <mergeCell ref="M1142:O1142"/>
-    <mergeCell ref="P1142:R1142"/>
-    <mergeCell ref="S1142:T1142"/>
-    <mergeCell ref="A1175:C1175"/>
-    <mergeCell ref="A1182:T1182"/>
-    <mergeCell ref="D1183:E1183"/>
-    <mergeCell ref="F1183:I1183"/>
-    <mergeCell ref="J1183:L1183"/>
-    <mergeCell ref="M1183:O1183"/>
-    <mergeCell ref="P1183:R1183"/>
-    <mergeCell ref="S1183:T1183"/>
-    <mergeCell ref="A1172:T1172"/>
-    <mergeCell ref="D1173:E1173"/>
-    <mergeCell ref="F1173:I1173"/>
-    <mergeCell ref="J1173:L1173"/>
-    <mergeCell ref="M1173:O1173"/>
-    <mergeCell ref="P1173:R1173"/>
-    <mergeCell ref="S1173:T1173"/>
-    <mergeCell ref="A1164:C1164"/>
-    <mergeCell ref="A1171:T1171"/>
-    <mergeCell ref="A1218:C1218"/>
-    <mergeCell ref="A1225:T1225"/>
-    <mergeCell ref="D1226:E1226"/>
-    <mergeCell ref="F1226:I1226"/>
-    <mergeCell ref="J1226:L1226"/>
-    <mergeCell ref="M1226:O1226"/>
-    <mergeCell ref="P1226:R1226"/>
-    <mergeCell ref="S1226:T1226"/>
-    <mergeCell ref="A1204:C1204"/>
-    <mergeCell ref="A1215:T1215"/>
-    <mergeCell ref="D1216:E1216"/>
-    <mergeCell ref="F1216:I1216"/>
-    <mergeCell ref="J1216:L1216"/>
-    <mergeCell ref="M1216:O1216"/>
-    <mergeCell ref="P1216:R1216"/>
-    <mergeCell ref="S1216:T1216"/>
-    <mergeCell ref="A1185:C1185"/>
-    <mergeCell ref="A1201:T1201"/>
-    <mergeCell ref="D1202:E1202"/>
-    <mergeCell ref="F1202:I1202"/>
-    <mergeCell ref="J1202:L1202"/>
-    <mergeCell ref="M1202:O1202"/>
-    <mergeCell ref="P1202:R1202"/>
-    <mergeCell ref="S1202:T1202"/>
-    <mergeCell ref="A1261:C1261"/>
-    <mergeCell ref="A1274:T1274"/>
-    <mergeCell ref="D1275:E1275"/>
-    <mergeCell ref="F1275:I1275"/>
-    <mergeCell ref="J1275:L1275"/>
-    <mergeCell ref="M1275:O1275"/>
-    <mergeCell ref="P1275:R1275"/>
-    <mergeCell ref="S1275:T1275"/>
-    <mergeCell ref="A1247:C1247"/>
-    <mergeCell ref="A1258:T1258"/>
-    <mergeCell ref="D1259:E1259"/>
-    <mergeCell ref="F1259:I1259"/>
-    <mergeCell ref="J1259:L1259"/>
-    <mergeCell ref="M1259:O1259"/>
-    <mergeCell ref="P1259:R1259"/>
-    <mergeCell ref="S1259:T1259"/>
-    <mergeCell ref="A1228:C1228"/>
-    <mergeCell ref="A1244:T1244"/>
-    <mergeCell ref="D1245:E1245"/>
-    <mergeCell ref="F1245:I1245"/>
-    <mergeCell ref="J1245:L1245"/>
-    <mergeCell ref="M1245:O1245"/>
-    <mergeCell ref="P1245:R1245"/>
-    <mergeCell ref="S1245:T1245"/>
-    <mergeCell ref="A1307:C1307"/>
-    <mergeCell ref="A1318:T1318"/>
-    <mergeCell ref="D1319:E1319"/>
-    <mergeCell ref="F1319:I1319"/>
-    <mergeCell ref="J1319:L1319"/>
-    <mergeCell ref="M1319:O1319"/>
-    <mergeCell ref="P1319:R1319"/>
-    <mergeCell ref="S1319:T1319"/>
-    <mergeCell ref="A1287:C1287"/>
-    <mergeCell ref="A1304:T1304"/>
-    <mergeCell ref="D1305:E1305"/>
-    <mergeCell ref="F1305:I1305"/>
-    <mergeCell ref="J1305:L1305"/>
-    <mergeCell ref="M1305:O1305"/>
-    <mergeCell ref="P1305:R1305"/>
-    <mergeCell ref="S1305:T1305"/>
-    <mergeCell ref="A1277:C1277"/>
-    <mergeCell ref="A1284:T1284"/>
-    <mergeCell ref="D1285:E1285"/>
-    <mergeCell ref="F1285:I1285"/>
-    <mergeCell ref="J1285:L1285"/>
-    <mergeCell ref="M1285:O1285"/>
-    <mergeCell ref="P1285:R1285"/>
-    <mergeCell ref="S1285:T1285"/>
-    <mergeCell ref="A1347:C1347"/>
-    <mergeCell ref="A1353:T1353"/>
-    <mergeCell ref="D1354:E1354"/>
-    <mergeCell ref="F1354:I1354"/>
-    <mergeCell ref="J1354:L1354"/>
-    <mergeCell ref="M1354:O1354"/>
-    <mergeCell ref="P1354:R1354"/>
-    <mergeCell ref="S1354:T1354"/>
-    <mergeCell ref="A1344:T1344"/>
-    <mergeCell ref="D1345:E1345"/>
-    <mergeCell ref="F1345:I1345"/>
-    <mergeCell ref="J1345:L1345"/>
-    <mergeCell ref="M1345:O1345"/>
-    <mergeCell ref="P1345:R1345"/>
-    <mergeCell ref="S1345:T1345"/>
-    <mergeCell ref="A1338:C1338"/>
-    <mergeCell ref="A1321:C1321"/>
-    <mergeCell ref="A1335:T1335"/>
-    <mergeCell ref="D1336:E1336"/>
-    <mergeCell ref="F1336:I1336"/>
-    <mergeCell ref="J1336:L1336"/>
-    <mergeCell ref="M1336:O1336"/>
-    <mergeCell ref="P1336:R1336"/>
-    <mergeCell ref="S1336:T1336"/>
-    <mergeCell ref="A1376:C1376"/>
-    <mergeCell ref="A1382:T1382"/>
-    <mergeCell ref="D1383:E1383"/>
-    <mergeCell ref="F1383:I1383"/>
-    <mergeCell ref="J1383:L1383"/>
-    <mergeCell ref="M1383:O1383"/>
-    <mergeCell ref="P1383:R1383"/>
-    <mergeCell ref="S1383:T1383"/>
-    <mergeCell ref="A1367:C1367"/>
-    <mergeCell ref="A1373:T1373"/>
-    <mergeCell ref="D1374:E1374"/>
-    <mergeCell ref="F1374:I1374"/>
-    <mergeCell ref="J1374:L1374"/>
-    <mergeCell ref="M1374:O1374"/>
-    <mergeCell ref="P1374:R1374"/>
-    <mergeCell ref="S1374:T1374"/>
-    <mergeCell ref="A1356:C1356"/>
-    <mergeCell ref="A1364:T1364"/>
-    <mergeCell ref="D1365:E1365"/>
-    <mergeCell ref="F1365:I1365"/>
-    <mergeCell ref="J1365:L1365"/>
-    <mergeCell ref="M1365:O1365"/>
-    <mergeCell ref="P1365:R1365"/>
-    <mergeCell ref="S1365:T1365"/>
-    <mergeCell ref="A1403:C1403"/>
-    <mergeCell ref="A1409:T1409"/>
-    <mergeCell ref="D1410:E1410"/>
-    <mergeCell ref="F1410:I1410"/>
-    <mergeCell ref="J1410:L1410"/>
-    <mergeCell ref="M1410:O1410"/>
-    <mergeCell ref="P1410:R1410"/>
-    <mergeCell ref="S1410:T1410"/>
-    <mergeCell ref="A1394:C1394"/>
-    <mergeCell ref="A1400:T1400"/>
-    <mergeCell ref="D1401:E1401"/>
-    <mergeCell ref="F1401:I1401"/>
-    <mergeCell ref="J1401:L1401"/>
-    <mergeCell ref="M1401:O1401"/>
-    <mergeCell ref="P1401:R1401"/>
-    <mergeCell ref="S1401:T1401"/>
-    <mergeCell ref="A1385:C1385"/>
-    <mergeCell ref="A1391:T1391"/>
-    <mergeCell ref="D1392:E1392"/>
-    <mergeCell ref="F1392:I1392"/>
-    <mergeCell ref="J1392:L1392"/>
-    <mergeCell ref="M1392:O1392"/>
-    <mergeCell ref="P1392:R1392"/>
-    <mergeCell ref="S1392:T1392"/>
-    <mergeCell ref="A1430:C1430"/>
-    <mergeCell ref="A1439:T1439"/>
-    <mergeCell ref="D1440:E1440"/>
-    <mergeCell ref="F1440:I1440"/>
-    <mergeCell ref="J1440:L1440"/>
-    <mergeCell ref="M1440:O1440"/>
-    <mergeCell ref="P1440:R1440"/>
-    <mergeCell ref="S1440:T1440"/>
-    <mergeCell ref="A1421:C1421"/>
-    <mergeCell ref="A1427:T1427"/>
-    <mergeCell ref="D1428:E1428"/>
-    <mergeCell ref="F1428:I1428"/>
-    <mergeCell ref="J1428:L1428"/>
-    <mergeCell ref="M1428:O1428"/>
-    <mergeCell ref="P1428:R1428"/>
-    <mergeCell ref="S1428:T1428"/>
-    <mergeCell ref="A1412:C1412"/>
-    <mergeCell ref="A1418:T1418"/>
-    <mergeCell ref="D1419:E1419"/>
-    <mergeCell ref="F1419:I1419"/>
-    <mergeCell ref="J1419:L1419"/>
-    <mergeCell ref="M1419:O1419"/>
-    <mergeCell ref="P1419:R1419"/>
-    <mergeCell ref="S1419:T1419"/>
-    <mergeCell ref="A1455:C1455"/>
-    <mergeCell ref="A1462:T1462"/>
-    <mergeCell ref="D1463:E1463"/>
-    <mergeCell ref="F1463:I1463"/>
-    <mergeCell ref="J1463:L1463"/>
-    <mergeCell ref="M1463:O1463"/>
-    <mergeCell ref="P1463:R1463"/>
-    <mergeCell ref="S1463:T1463"/>
-    <mergeCell ref="A1452:T1452"/>
-    <mergeCell ref="D1453:E1453"/>
-    <mergeCell ref="F1453:I1453"/>
-    <mergeCell ref="J1453:L1453"/>
-    <mergeCell ref="M1453:O1453"/>
-    <mergeCell ref="P1453:R1453"/>
-    <mergeCell ref="S1453:T1453"/>
-    <mergeCell ref="A1442:C1442"/>
-    <mergeCell ref="A1451:T1451"/>
-    <mergeCell ref="A1485:C1485"/>
-    <mergeCell ref="A1492:T1492"/>
-    <mergeCell ref="D1493:E1493"/>
-    <mergeCell ref="F1493:I1493"/>
-    <mergeCell ref="J1493:L1493"/>
-    <mergeCell ref="M1493:O1493"/>
-    <mergeCell ref="P1493:R1493"/>
-    <mergeCell ref="S1493:T1493"/>
-    <mergeCell ref="A1475:C1475"/>
-    <mergeCell ref="A1482:T1482"/>
-    <mergeCell ref="D1483:E1483"/>
-    <mergeCell ref="F1483:I1483"/>
-    <mergeCell ref="J1483:L1483"/>
-    <mergeCell ref="M1483:O1483"/>
-    <mergeCell ref="P1483:R1483"/>
-    <mergeCell ref="S1483:T1483"/>
-    <mergeCell ref="A1465:C1465"/>
-    <mergeCell ref="A1472:T1472"/>
-    <mergeCell ref="D1473:E1473"/>
-    <mergeCell ref="F1473:I1473"/>
-    <mergeCell ref="J1473:L1473"/>
-    <mergeCell ref="M1473:O1473"/>
-    <mergeCell ref="P1473:R1473"/>
-    <mergeCell ref="S1473:T1473"/>
-    <mergeCell ref="A1515:C1515"/>
-    <mergeCell ref="A1521:T1521"/>
-    <mergeCell ref="D1522:E1522"/>
-    <mergeCell ref="F1522:I1522"/>
-    <mergeCell ref="J1522:L1522"/>
-    <mergeCell ref="M1522:O1522"/>
-    <mergeCell ref="P1522:R1522"/>
-    <mergeCell ref="S1522:T1522"/>
-    <mergeCell ref="A1505:C1505"/>
-    <mergeCell ref="A1512:T1512"/>
-    <mergeCell ref="D1513:E1513"/>
-    <mergeCell ref="F1513:I1513"/>
-    <mergeCell ref="J1513:L1513"/>
-    <mergeCell ref="M1513:O1513"/>
-    <mergeCell ref="P1513:R1513"/>
-    <mergeCell ref="S1513:T1513"/>
-    <mergeCell ref="A1495:C1495"/>
-    <mergeCell ref="A1502:T1502"/>
-    <mergeCell ref="D1503:E1503"/>
-    <mergeCell ref="F1503:I1503"/>
-    <mergeCell ref="J1503:L1503"/>
-    <mergeCell ref="M1503:O1503"/>
-    <mergeCell ref="P1503:R1503"/>
-    <mergeCell ref="S1503:T1503"/>
-    <mergeCell ref="A1542:C1542"/>
-    <mergeCell ref="A1551:T1551"/>
-    <mergeCell ref="D1552:E1552"/>
-    <mergeCell ref="F1552:I1552"/>
-    <mergeCell ref="J1552:L1552"/>
-    <mergeCell ref="M1552:O1552"/>
-    <mergeCell ref="P1552:R1552"/>
-    <mergeCell ref="S1552:T1552"/>
-    <mergeCell ref="A1533:C1533"/>
-    <mergeCell ref="A1539:T1539"/>
-    <mergeCell ref="D1540:E1540"/>
-    <mergeCell ref="F1540:I1540"/>
-    <mergeCell ref="J1540:L1540"/>
-    <mergeCell ref="M1540:O1540"/>
-    <mergeCell ref="P1540:R1540"/>
-    <mergeCell ref="S1540:T1540"/>
-    <mergeCell ref="A1524:C1524"/>
-    <mergeCell ref="A1530:T1530"/>
-    <mergeCell ref="D1531:E1531"/>
-    <mergeCell ref="F1531:I1531"/>
-    <mergeCell ref="J1531:L1531"/>
-    <mergeCell ref="M1531:O1531"/>
-    <mergeCell ref="P1531:R1531"/>
-    <mergeCell ref="S1531:T1531"/>
-    <mergeCell ref="A1575:C1575"/>
-    <mergeCell ref="A1590:T1590"/>
-    <mergeCell ref="D1591:E1591"/>
-    <mergeCell ref="F1591:I1591"/>
-    <mergeCell ref="J1591:L1591"/>
-    <mergeCell ref="M1591:O1591"/>
-    <mergeCell ref="P1591:R1591"/>
-    <mergeCell ref="S1591:T1591"/>
-    <mergeCell ref="A1563:C1563"/>
-    <mergeCell ref="A1572:T1572"/>
-    <mergeCell ref="D1573:E1573"/>
-    <mergeCell ref="F1573:I1573"/>
-    <mergeCell ref="J1573:L1573"/>
-    <mergeCell ref="M1573:O1573"/>
-    <mergeCell ref="P1573:R1573"/>
-    <mergeCell ref="S1573:T1573"/>
-    <mergeCell ref="A1554:C1554"/>
-    <mergeCell ref="A1560:T1560"/>
-    <mergeCell ref="D1561:E1561"/>
-    <mergeCell ref="F1561:I1561"/>
-    <mergeCell ref="J1561:L1561"/>
-    <mergeCell ref="M1561:O1561"/>
-    <mergeCell ref="P1561:R1561"/>
-    <mergeCell ref="S1561:T1561"/>
-    <mergeCell ref="A1616:C1616"/>
-    <mergeCell ref="A1623:T1623"/>
-    <mergeCell ref="D1624:E1624"/>
-    <mergeCell ref="F1624:I1624"/>
-    <mergeCell ref="J1624:L1624"/>
-    <mergeCell ref="M1624:O1624"/>
-    <mergeCell ref="P1624:R1624"/>
-    <mergeCell ref="S1624:T1624"/>
-    <mergeCell ref="A1606:C1606"/>
-    <mergeCell ref="A1613:T1613"/>
-    <mergeCell ref="D1614:E1614"/>
-    <mergeCell ref="F1614:I1614"/>
-    <mergeCell ref="J1614:L1614"/>
-    <mergeCell ref="M1614:O1614"/>
-    <mergeCell ref="P1614:R1614"/>
-    <mergeCell ref="S1614:T1614"/>
-    <mergeCell ref="A1593:C1593"/>
-    <mergeCell ref="A1603:T1603"/>
-    <mergeCell ref="D1604:E1604"/>
-    <mergeCell ref="F1604:I1604"/>
-    <mergeCell ref="J1604:L1604"/>
-    <mergeCell ref="M1604:O1604"/>
-    <mergeCell ref="P1604:R1604"/>
-    <mergeCell ref="S1604:T1604"/>
-    <mergeCell ref="A1648:C1648"/>
-    <mergeCell ref="A1654:T1654"/>
-    <mergeCell ref="D1655:E1655"/>
-    <mergeCell ref="F1655:I1655"/>
-    <mergeCell ref="J1655:L1655"/>
-    <mergeCell ref="M1655:O1655"/>
-    <mergeCell ref="P1655:R1655"/>
-    <mergeCell ref="S1655:T1655"/>
-    <mergeCell ref="A1636:C1636"/>
-    <mergeCell ref="A1645:T1645"/>
-    <mergeCell ref="D1646:E1646"/>
-    <mergeCell ref="F1646:I1646"/>
-    <mergeCell ref="J1646:L1646"/>
-    <mergeCell ref="M1646:O1646"/>
-    <mergeCell ref="P1646:R1646"/>
-    <mergeCell ref="S1646:T1646"/>
-    <mergeCell ref="A1626:C1626"/>
-    <mergeCell ref="A1633:T1633"/>
-    <mergeCell ref="D1634:E1634"/>
-    <mergeCell ref="F1634:I1634"/>
-    <mergeCell ref="J1634:L1634"/>
-    <mergeCell ref="M1634:O1634"/>
-    <mergeCell ref="P1634:R1634"/>
-    <mergeCell ref="S1634:T1634"/>
-    <mergeCell ref="A1679:C1679"/>
-    <mergeCell ref="A1685:T1685"/>
-    <mergeCell ref="D1686:E1686"/>
-    <mergeCell ref="F1686:I1686"/>
-    <mergeCell ref="J1686:L1686"/>
-    <mergeCell ref="M1686:O1686"/>
-    <mergeCell ref="P1686:R1686"/>
-    <mergeCell ref="S1686:T1686"/>
-    <mergeCell ref="A1667:C1667"/>
-    <mergeCell ref="A1676:T1676"/>
-    <mergeCell ref="D1677:E1677"/>
-    <mergeCell ref="F1677:I1677"/>
-    <mergeCell ref="J1677:L1677"/>
-    <mergeCell ref="M1677:O1677"/>
-    <mergeCell ref="P1677:R1677"/>
-    <mergeCell ref="S1677:T1677"/>
-    <mergeCell ref="A1657:C1657"/>
-    <mergeCell ref="A1664:T1664"/>
-    <mergeCell ref="D1665:E1665"/>
-    <mergeCell ref="F1665:I1665"/>
-    <mergeCell ref="J1665:L1665"/>
-    <mergeCell ref="M1665:O1665"/>
-    <mergeCell ref="P1665:R1665"/>
-    <mergeCell ref="S1665:T1665"/>
-    <mergeCell ref="A1712:C1712"/>
-    <mergeCell ref="A1721:T1721"/>
-    <mergeCell ref="D1722:E1722"/>
-    <mergeCell ref="F1722:I1722"/>
-    <mergeCell ref="J1722:L1722"/>
-    <mergeCell ref="M1722:O1722"/>
-    <mergeCell ref="P1722:R1722"/>
-    <mergeCell ref="S1722:T1722"/>
-    <mergeCell ref="A1700:C1700"/>
-    <mergeCell ref="A1709:T1709"/>
-    <mergeCell ref="D1710:E1710"/>
-    <mergeCell ref="F1710:I1710"/>
-    <mergeCell ref="J1710:L1710"/>
-    <mergeCell ref="M1710:O1710"/>
-    <mergeCell ref="P1710:R1710"/>
-    <mergeCell ref="S1710:T1710"/>
-    <mergeCell ref="A1688:C1688"/>
-    <mergeCell ref="A1697:T1697"/>
-    <mergeCell ref="D1698:E1698"/>
-    <mergeCell ref="F1698:I1698"/>
-    <mergeCell ref="J1698:L1698"/>
-    <mergeCell ref="M1698:O1698"/>
-    <mergeCell ref="P1698:R1698"/>
-    <mergeCell ref="S1698:T1698"/>
-    <mergeCell ref="A1748:C1748"/>
-    <mergeCell ref="A1757:T1757"/>
-    <mergeCell ref="D1758:E1758"/>
-    <mergeCell ref="F1758:I1758"/>
-    <mergeCell ref="J1758:L1758"/>
-    <mergeCell ref="M1758:O1758"/>
-    <mergeCell ref="P1758:R1758"/>
-    <mergeCell ref="S1758:T1758"/>
-    <mergeCell ref="A1736:C1736"/>
-    <mergeCell ref="A1745:T1745"/>
-    <mergeCell ref="D1746:E1746"/>
-    <mergeCell ref="F1746:I1746"/>
-    <mergeCell ref="J1746:L1746"/>
-    <mergeCell ref="M1746:O1746"/>
-    <mergeCell ref="P1746:R1746"/>
-    <mergeCell ref="S1746:T1746"/>
-    <mergeCell ref="A1724:C1724"/>
-    <mergeCell ref="A1733:T1733"/>
-    <mergeCell ref="D1734:E1734"/>
-    <mergeCell ref="F1734:I1734"/>
-    <mergeCell ref="J1734:L1734"/>
-    <mergeCell ref="M1734:O1734"/>
-    <mergeCell ref="P1734:R1734"/>
-    <mergeCell ref="S1734:T1734"/>
-    <mergeCell ref="A1784:C1784"/>
-    <mergeCell ref="A1793:T1793"/>
-    <mergeCell ref="D1794:E1794"/>
-    <mergeCell ref="F1794:I1794"/>
-    <mergeCell ref="J1794:L1794"/>
-    <mergeCell ref="M1794:O1794"/>
-    <mergeCell ref="P1794:R1794"/>
-    <mergeCell ref="S1794:T1794"/>
-    <mergeCell ref="A1772:C1772"/>
-    <mergeCell ref="A1781:T1781"/>
-    <mergeCell ref="D1782:E1782"/>
-    <mergeCell ref="F1782:I1782"/>
-    <mergeCell ref="J1782:L1782"/>
-    <mergeCell ref="M1782:O1782"/>
-    <mergeCell ref="P1782:R1782"/>
-    <mergeCell ref="S1782:T1782"/>
-    <mergeCell ref="A1760:C1760"/>
-    <mergeCell ref="A1769:T1769"/>
-    <mergeCell ref="D1770:E1770"/>
-    <mergeCell ref="F1770:I1770"/>
-    <mergeCell ref="J1770:L1770"/>
-    <mergeCell ref="M1770:O1770"/>
-    <mergeCell ref="P1770:R1770"/>
-    <mergeCell ref="S1770:T1770"/>
-    <mergeCell ref="A1820:C1820"/>
-    <mergeCell ref="A1828:T1828"/>
-    <mergeCell ref="D1829:E1829"/>
-    <mergeCell ref="F1829:I1829"/>
-    <mergeCell ref="J1829:L1829"/>
-    <mergeCell ref="M1829:O1829"/>
-    <mergeCell ref="P1829:R1829"/>
-    <mergeCell ref="S1829:T1829"/>
-    <mergeCell ref="A1808:C1808"/>
-    <mergeCell ref="A1817:T1817"/>
-    <mergeCell ref="D1818:E1818"/>
-    <mergeCell ref="F1818:I1818"/>
-    <mergeCell ref="J1818:L1818"/>
-    <mergeCell ref="M1818:O1818"/>
-    <mergeCell ref="P1818:R1818"/>
-    <mergeCell ref="S1818:T1818"/>
-    <mergeCell ref="A1796:C1796"/>
-    <mergeCell ref="A1805:T1805"/>
-    <mergeCell ref="D1806:E1806"/>
-    <mergeCell ref="F1806:I1806"/>
-    <mergeCell ref="J1806:L1806"/>
-    <mergeCell ref="M1806:O1806"/>
-    <mergeCell ref="P1806:R1806"/>
-    <mergeCell ref="S1806:T1806"/>
-    <mergeCell ref="A1851:C1851"/>
-    <mergeCell ref="A1857:T1857"/>
-    <mergeCell ref="D1858:E1858"/>
-    <mergeCell ref="F1858:I1858"/>
-    <mergeCell ref="J1858:L1858"/>
-    <mergeCell ref="M1858:O1858"/>
-    <mergeCell ref="P1858:R1858"/>
-    <mergeCell ref="S1858:T1858"/>
-    <mergeCell ref="A1842:C1842"/>
-    <mergeCell ref="A1848:T1848"/>
-    <mergeCell ref="D1849:E1849"/>
-    <mergeCell ref="F1849:I1849"/>
-    <mergeCell ref="J1849:L1849"/>
-    <mergeCell ref="M1849:O1849"/>
-    <mergeCell ref="P1849:R1849"/>
-    <mergeCell ref="S1849:T1849"/>
-    <mergeCell ref="A1831:C1831"/>
-    <mergeCell ref="A1839:T1839"/>
-    <mergeCell ref="D1840:E1840"/>
-    <mergeCell ref="F1840:I1840"/>
-    <mergeCell ref="J1840:L1840"/>
-    <mergeCell ref="M1840:O1840"/>
-    <mergeCell ref="P1840:R1840"/>
-    <mergeCell ref="S1840:T1840"/>
-    <mergeCell ref="A1887:C1887"/>
-    <mergeCell ref="A1869:C1869"/>
-    <mergeCell ref="A1884:T1884"/>
-    <mergeCell ref="D1885:E1885"/>
-    <mergeCell ref="F1885:I1885"/>
-    <mergeCell ref="J1885:L1885"/>
-    <mergeCell ref="M1885:O1885"/>
-    <mergeCell ref="P1885:R1885"/>
-    <mergeCell ref="S1885:T1885"/>
-    <mergeCell ref="A1860:C1860"/>
-    <mergeCell ref="A1866:T1866"/>
-    <mergeCell ref="D1867:E1867"/>
-    <mergeCell ref="F1867:I1867"/>
-    <mergeCell ref="J1867:L1867"/>
-    <mergeCell ref="M1867:O1867"/>
-    <mergeCell ref="P1867:R1867"/>
-    <mergeCell ref="S1867:T1867"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1.05" bottom="0.49" header="0.3" footer="0.3"/>
